--- a/Body-movement/homework.xlsx
+++ b/Body-movement/homework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniil\Projects\lbsu-modeling-tasks\Body-movement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C313AC-180F-4488-BA7E-85F78F023529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183DC5FC-19F9-4BA6-9C37-10B5381C8063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="з. 1" sheetId="1" r:id="rId1"/>
@@ -343,21 +343,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,9 +359,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -387,8 +375,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -12258,7 +12257,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12269,53 +12268,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -12339,13 +12338,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -12372,13 +12371,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E56" si="0">E4+$A$5</f>
         <v>0.2</v>
@@ -12405,13 +12404,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -12438,13 +12437,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>2600</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
@@ -12473,13 +12472,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>1.2050000000000001</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -12506,13 +12505,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>1.8099999999999999E-5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -13786,53 +13785,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -13856,13 +13855,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -13889,13 +13888,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E56" si="0">E4+$A$5</f>
         <v>0.2</v>
@@ -13922,13 +13921,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -13955,13 +13954,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>2600</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
@@ -13990,13 +13989,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -14023,13 +14022,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -15746,53 +15745,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -15816,13 +15815,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -15849,13 +15848,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E20" si="0">E4+$A$5</f>
         <v>0.2</v>
@@ -15882,13 +15881,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -15915,13 +15914,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2">
@@ -15950,13 +15949,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>1.2050000000000001</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -15983,13 +15982,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>1.8099999999999999E-5</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -16548,10 +16547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBB4F95-2F9F-4659-8B59-A25B815879E9}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16561,53 +16560,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -16631,13 +16630,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>60</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -16664,13 +16663,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E42" si="0">E4+$A$5</f>
         <v>0.2</v>
@@ -16697,13 +16696,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -16730,13 +16729,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2">
@@ -16765,13 +16764,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -16798,13 +16797,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -17690,27 +17689,27 @@
     </row>
     <row r="43" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E43" s="2">
-        <f t="shared" ref="E43:E69" si="6">E42+$A$5</f>
+        <f t="shared" ref="E43:E57" si="6">E42+$A$5</f>
         <v>4.0000000000000018</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" ref="F43:F69" si="7">IF(J42 &lt; 0, 0, (1-H42*$A$5)*F42)</f>
+        <f t="shared" ref="F43:F57" si="7">IF(J42 &lt; 0, 0, (1-H42*$A$5)*F42)</f>
         <v>15.000000000000004</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43:G69" si="8">($A$8/$A$7-1)*9.81*$A$5+(1-H42*$A$5)*G42</f>
+        <f t="shared" ref="G43:G57" si="8">($A$8/$A$7-1)*9.81*$A$5+(1-H42*$A$5)*G42</f>
         <v>-13.259237886466858</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" ref="H43:H69" si="9">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F43^2+G43^2))/($A$7*$A$6)</f>
+        <f t="shared" ref="H43:H57" si="9">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F43^2+G43^2))/($A$7*$A$6)</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43:I69" si="10">I42+IF($F43=0,0,F42*$A$5)</f>
+        <f t="shared" ref="I43:I57" si="10">I42+IF($F43=0,0,F42*$A$5)</f>
         <v>60.000000000000007</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" ref="J43:J69" si="11">J42+IF($F43=0,0,G42*$A$5)</f>
+        <f t="shared" ref="J43:J57" si="11">J42+IF($F43=0,0,G42*$A$5)</f>
         <v>27.405048454132572</v>
       </c>
     </row>
@@ -18053,262 +18052,38 @@
       </c>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E57" s="16">
+      <c r="E57" s="12">
         <f t="shared" si="6"/>
         <v>5.3999999999999968</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="12">
         <f t="shared" si="7"/>
         <v>15.000000000000004</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G57" s="12">
         <f t="shared" si="8"/>
         <v>-26.993237886466876</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I57" s="16">
+      <c r="I57" s="12">
         <f t="shared" si="10"/>
         <v>81.000000000000014</v>
       </c>
-      <c r="J57" s="16">
+      <c r="J57" s="12">
         <f t="shared" si="11"/>
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-    </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-    </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-    </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-    </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-    </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-    </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-    </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-    </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-    </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-    </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-    </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-    </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-    </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18323,7 +18098,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737AF652-E887-4511-942F-801E59B0D82E}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J4"/>
@@ -18336,53 +18111,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -18406,13 +18181,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -18439,13 +18214,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E38" si="0">E4+$A$5</f>
         <v>0.2</v>
@@ -18472,13 +18247,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -18505,13 +18280,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>2600</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2">
@@ -18540,13 +18315,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>997</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -18573,13 +18348,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0.01</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -19387,27 +19162,27 @@
     </row>
     <row r="40" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E40" s="2">
-        <f t="shared" ref="E40:E61" si="6">E39+$A$5</f>
+        <f t="shared" ref="E40:E50" si="6">E39+$A$5</f>
         <v>3.700000000000002</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" ref="F40:F61" si="7">IF(J39 &lt; 0, 0, (1-H39*$A$5)*F39)</f>
+        <f t="shared" ref="F40:F50" si="7">IF(J39 &lt; 0, 0, (1-H39*$A$5)*F39)</f>
         <v>1.3483130174764137E-5</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="G40:G61" si="8">($A$8/$A$7-1)*9.81*$A$5+(1-H39*$A$5)*G39</f>
+        <f t="shared" ref="G40:G50" si="8">($A$8/$A$7-1)*9.81*$A$5+(1-H39*$A$5)*G39</f>
         <v>-2.2899348888843325</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" ref="H40:H61" si="9">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F40^2+G40^2))/($A$7*$A$6)</f>
+        <f t="shared" ref="H40:H50" si="9">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F40^2+G40^2))/($A$7*$A$6)</f>
         <v>2.641228943373755</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" ref="I40:I61" si="10">I39+IF($F40=0,0,F39*$A$5)</f>
+        <f t="shared" ref="I40:I50" si="10">I39+IF($F40=0,0,F39*$A$5)</f>
         <v>0.29767339300444673</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" ref="J40:J61" si="11">J39+IF($F40=0,0,G39*$A$5)</f>
+        <f t="shared" ref="J40:J50" si="11">J39+IF($F40=0,0,G39*$A$5)</f>
         <v>2.1885518106295496</v>
       </c>
     </row>
@@ -19646,118 +19421,38 @@
       </c>
     </row>
     <row r="50" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E50" s="16">
+      <c r="E50" s="12">
         <f t="shared" si="6"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="12">
         <f t="shared" si="7"/>
         <v>6.2783228217767728E-7</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="12">
         <f t="shared" si="8"/>
         <v>-2.2899348890421285</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="12">
         <f t="shared" si="9"/>
         <v>2.6412289435097165</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="12">
         <f t="shared" si="10"/>
         <v>0.29767826016975801</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="12">
         <f t="shared" si="11"/>
         <v>-0.10138307837868632</v>
       </c>
     </row>
     <row r="51" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19773,9 +19468,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A61EA9E-1693-49DD-9896-F0156B72DD92}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -19786,53 +19481,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -19856,13 +19551,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>0.1</v>
@@ -19889,31 +19584,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>0.1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E38" si="0">E4+$A$5</f>
+        <f t="shared" ref="E5:E29" si="0">E4+$A$5</f>
         <v>0.2</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F38" si="1">IF(J4 &lt; 0, 0, (1-H4*$A$5)*F4)</f>
+        <f t="shared" ref="F5:F29" si="1">IF(J4 &lt; 0, 0, (1-H4*$A$5)*F4)</f>
         <v>0.4718747260957129</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="2">($A$8/$A$7-1)*9.81*$A$5+(1-H4*$A$5)*G4</f>
+        <f t="shared" ref="G5:G29" si="2">($A$8/$A$7-1)*9.81*$A$5+(1-H4*$A$5)*G4</f>
         <v>-1.6811095841431969</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H5:H38" si="3">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F5^2+G5^2))/($A$7*$A$6)</f>
+        <f t="shared" ref="H5:H29" si="3">(4.5*$A$9/$A$6+0.15*$A$8*SQRT(F5^2+G5^2))/($A$7*$A$6)</f>
         <v>0.66588629349351214</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:J38" si="4">I4+IF($F5=0,0,F4*$A$5)</f>
+        <f t="shared" ref="I5:J29" si="4">I4+IF($F5=0,0,F4*$A$5)</f>
         <v>9.9038437102922497E-2</v>
       </c>
       <c r="J5" s="2">
@@ -19922,13 +19617,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
@@ -19955,13 +19650,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>7870</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2">
@@ -19990,13 +19685,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>997</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -20023,13 +19718,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0.01</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -20550,198 +20245,38 @@
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E29" s="16">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="12">
         <f t="shared" si="1"/>
         <v>6.3247847956350205E-3</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="12">
         <f t="shared" si="2"/>
         <v>-4.7447326706061181</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="12">
         <f t="shared" si="3"/>
         <v>1.8055283388001526</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="12">
         <f t="shared" si="4"/>
         <v>0.4421679775711751</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="12">
         <f t="shared" si="4"/>
         <v>-0.40597768208698864</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20769,53 +20304,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -20839,13 +20374,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>1E-3</v>
@@ -20872,13 +20407,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E68" si="0">E4+$A$5</f>
         <v>2E-3</v>
@@ -20905,13 +20440,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
@@ -20938,13 +20473,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>25</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="2">
@@ -20973,13 +20508,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>997</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -21006,13 +20541,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0.01</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
@@ -26176,7 +25711,7 @@
   <dimension ref="A1:J320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J320" sqref="I3:J320"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26187,53 +25722,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="15" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="5"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
@@ -26257,13 +25792,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2">
         <f>E3+$A$5</f>
         <v>1E-3</v>
@@ -26290,13 +25825,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1E-3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E68" si="0">E4+$A$5</f>
         <v>2E-3</v>
@@ -26323,13 +25858,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.05</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
@@ -26356,13 +25891,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>450</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2">
@@ -26391,13 +25926,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>997</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="7"/>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
@@ -26424,13 +25959,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0.01</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>

--- a/Body-movement/homework.xlsx
+++ b/Body-movement/homework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniil\Projects\lbsu-modeling-tasks\Body-movement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Modeling\2023.05.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183DC5FC-19F9-4BA6-9C37-10B5381C8063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8300350-A5D5-4102-B59E-A28EE8ECF9FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12900" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="з. 1" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -855,7 +844,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738029551"/>
@@ -917,7 +906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738024751"/>
@@ -965,7 +954,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1528,7 +1517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738024271"/>
@@ -1590,7 +1579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738023791"/>
@@ -1638,7 +1627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1937,7 +1926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738038671"/>
@@ -1999,7 +1988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1294971935"/>
@@ -2047,7 +2036,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2514,7 +2503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497174783"/>
@@ -2576,7 +2565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497187743"/>
@@ -2624,7 +2613,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3059,7 +3048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497202143"/>
@@ -3121,7 +3110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497200703"/>
@@ -3169,7 +3158,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3468,7 +3457,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497183903"/>
@@ -3530,7 +3519,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497175263"/>
@@ -3578,7 +3567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4939,7 +4928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497195903"/>
@@ -5001,7 +4990,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1497182943"/>
@@ -5049,7 +5038,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7094,7 +7083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738031471"/>
@@ -7156,7 +7145,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="738037711"/>
@@ -7204,7 +7193,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12256,18 +12245,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1328125" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12282,7 +12271,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -12307,7 +12296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -12337,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>60</v>
       </c>
@@ -12370,7 +12359,7 @@
         <v>2.598076211353316</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -12403,7 +12392,7 @@
         <v>5.0872576571126231</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -12436,7 +12425,7 @@
         <v>7.468334472112403</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2600</v>
       </c>
@@ -12471,7 +12460,7 @@
         <v>9.7420587804026102</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.2050000000000001</v>
       </c>
@@ -12504,7 +12493,7 @@
         <v>11.909145764669722</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1.8099999999999999E-5</v>
       </c>
@@ -12537,7 +12526,7 @@
         <v>13.970274694838945</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -12563,7 +12552,7 @@
         <v>15.926089921663637</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -12589,7 +12578,7 @@
         <v>17.777201841591062</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -12615,7 +12604,7 @@
         <v>19.52418783982797</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -12641,7 +12630,7 @@
         <v>21.16759321933861</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -12667,7 +12656,7 @@
         <v>22.707932124515953</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -12693,7 +12682,7 @@
         <v>24.145688469496687</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -12719,7 +12708,7 @@
         <v>25.48131688255749</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -12745,7 +12734,7 @@
         <v>26.715243679736052</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -12771,7 +12760,7 @@
         <v>27.847867882740935</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -12797,7 +12786,7 @@
         <v>28.87956229828329</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -12823,7 +12812,7 @@
         <v>29.810674678049839</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -12849,7 +12838,7 @@
         <v>30.641528980419714</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -12875,7 +12864,7 @@
         <v>31.372426756370135</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -12901,7 +12890,7 @@
         <v>32.003648682347638</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -12927,7 +12916,7 @@
         <v>32.535456261607258</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -12953,7 +12942,7 @@
         <v>32.968093711977168</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -12979,7 +12968,7 @@
         <v>33.301790051579509</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -13005,7 +12994,7 @@
         <v>33.536761384372973</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -13031,7 +13020,7 @@
         <v>33.673213374627238</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -13057,7 +13046,7 @@
         <v>33.711343884473784</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
@@ -13083,7 +13072,7 @@
         <v>33.651345733191562</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
@@ -13109,7 +13098,7 @@
         <v>33.493409523187132</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
@@ -13135,7 +13124,7 @@
         <v>33.23772646814863</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
@@ -13161,7 +13150,7 @@
         <v>32.884491155466968</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
@@ -13187,7 +13176,7 @@
         <v>32.433904178443477</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
@@ -13213,7 +13202,7 @@
         <v>31.886174583352691</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
@@ -13239,7 +13228,7 @@
         <v>31.241522090237552</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
@@ -13265,7 +13254,7 @@
         <v>30.500179061935746</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
@@ -13291,7 +13280,7 @@
         <v>29.662392210929614</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
@@ -13317,7 +13306,7 @@
         <v>28.728424046454894</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
@@ -13343,7 +13332,7 @@
         <v>27.698554073992508</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
@@ -13369,7 +13358,7 @@
         <v>26.573079765649513</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
@@ -13395,7 +13384,7 @@
         <v>25.352317323376386</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
@@ -13421,7 +13410,7 @@
         <v>24.036602258096735</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
@@ -13447,7 +13436,7 @@
         <v>22.626289807325975</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
@@ -13473,7 +13462,7 @@
         <v>21.121755212338133</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
@@ -13499,7 +13488,7 @@
         <v>19.523393873885748</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
@@ -13525,7 +13514,7 @@
         <v>17.831621403229327</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>4.5</v>
@@ -13551,7 +13540,7 @@
         <v>16.046873583012651</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
@@ -13577,7 +13566,7 @@
         <v>14.169606250457623</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
@@ -13603,7 +13592,7 @@
         <v>12.200295113511011</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
@@ -13629,7 +13618,7 @@
         <v>10.139435508976096</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
@@ -13655,7 +13644,7 @@
         <v>7.9875421102995947</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
@@ -13681,7 +13670,7 @@
         <v>5.7451485915390901</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
@@ -13707,7 +13696,7 @@
         <v>3.41280725308301</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>5.1999999999999975</v>
@@ -13733,7 +13722,7 @@
         <v>0.99108861390697323</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
@@ -13778,13 +13767,13 @@
       <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13799,7 +13788,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -13824,7 +13813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -13854,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>60</v>
       </c>
@@ -13887,7 +13876,7 @@
         <v>2.598076211353316</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -13920,7 +13909,7 @@
         <v>5.0980524227066315</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -13953,7 +13942,7 @@
         <v>7.4999286340599465</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2600</v>
       </c>
@@ -13988,7 +13977,7 @@
         <v>9.8037048454132609</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -14021,7 +14010,7 @@
         <v>12.009381056766577</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0</v>
       </c>
@@ -14054,7 +14043,7 @@
         <v>14.116957268119892</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -14080,7 +14069,7 @@
         <v>16.126433479473206</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -14106,7 +14095,7 @@
         <v>18.037809690826521</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -14132,7 +14121,7 @@
         <v>19.851085902179836</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -14158,7 +14147,7 @@
         <v>21.566262113533149</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -14184,7 +14173,7 @@
         <v>23.183338324886464</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -14210,7 +14199,7 @@
         <v>24.702314536239779</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -14236,7 +14225,7 @@
         <v>26.123190747593092</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -14262,7 +14251,7 @@
         <v>27.445966958946407</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -14288,7 +14277,7 @@
         <v>28.670643170299719</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -14314,7 +14303,7 @@
         <v>29.797219381653033</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -14340,7 +14329,7 @@
         <v>30.825695593006348</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -14366,7 +14355,7 @@
         <v>31.75607180435966</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -14392,7 +14381,7 @@
         <v>32.588348015712974</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -14418,7 +14407,7 @@
         <v>33.322524227066289</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -14444,7 +14433,7 @@
         <v>33.958600438419602</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -14470,7 +14459,7 @@
         <v>34.496576649772919</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -14496,7 +14485,7 @@
         <v>34.936452861126234</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -14522,7 +14511,7 @@
         <v>35.278229072479547</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -14548,7 +14537,7 @@
         <v>35.521905283832865</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -14574,7 +14563,7 @@
         <v>35.66748149518618</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
@@ -14600,7 +14589,7 @@
         <v>35.714957706539494</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
@@ -14626,7 +14615,7 @@
         <v>35.664333917892804</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
@@ -14652,7 +14641,7 @@
         <v>35.51561012924612</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
@@ -14678,7 +14667,7 @@
         <v>35.268786340599434</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
@@ -14704,7 +14693,7 @@
         <v>34.923862551952745</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
@@ -14730,7 +14719,7 @@
         <v>34.48083876330606</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
@@ -14756,7 +14745,7 @@
         <v>33.939714974659374</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
@@ -14782,7 +14771,7 @@
         <v>33.300491186012685</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
@@ -14808,7 +14797,7 @@
         <v>32.563167397366001</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
@@ -14834,7 +14823,7 @@
         <v>31.727743608719315</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
@@ -14860,7 +14849,7 @@
         <v>30.79421982007263</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
@@ -14886,7 +14875,7 @@
         <v>29.762596031425943</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
@@ -14912,7 +14901,7 @@
         <v>28.632872242779257</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000018</v>
@@ -14938,7 +14927,7 @@
         <v>27.405048454132572</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
@@ -14964,7 +14953,7 @@
         <v>26.079124665485885</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
@@ -14990,7 +14979,7 @@
         <v>24.655100876839199</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>4.3000000000000007</v>
@@ -15016,7 +15005,7 @@
         <v>23.132977088192515</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
@@ -15042,7 +15031,7 @@
         <v>21.512753299545828</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>4.5</v>
@@ -15068,7 +15057,7 @@
         <v>19.794429510899143</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
@@ -15094,7 +15083,7 @@
         <v>17.978005722252455</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>4.6999999999999993</v>
@@ -15120,7 +15109,7 @@
         <v>16.063481933605768</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>4.7999999999999989</v>
@@ -15146,7 +15135,7 @@
         <v>14.050858144959081</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>4.8999999999999986</v>
@@ -15172,7 +15161,7 @@
         <v>11.940134356312395</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
@@ -15198,7 +15187,7 @@
         <v>9.7313105676657088</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
@@ -15224,7 +15213,7 @@
         <v>7.4243867790190219</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>5.1999999999999975</v>
@@ -15250,7 +15239,7 @@
         <v>5.0193629903723345</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>5.2999999999999972</v>
@@ -15276,7 +15265,7 @@
         <v>2.516239201725647</v>
       </c>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" ref="E57:E73" si="5">E56+$A$5</f>
         <v>5.3999999999999968</v>
@@ -15302,7 +15291,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f t="shared" si="5"/>
         <v>5.4999999999999964</v>
@@ -15328,7 +15317,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f t="shared" si="5"/>
         <v>5.5999999999999961</v>
@@ -15354,7 +15343,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" si="5"/>
         <v>5.6999999999999957</v>
@@ -15380,7 +15369,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" si="5"/>
         <v>5.7999999999999954</v>
@@ -15406,7 +15395,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f t="shared" si="5"/>
         <v>5.899999999999995</v>
@@ -15432,7 +15421,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f t="shared" si="5"/>
         <v>5.9999999999999947</v>
@@ -15458,7 +15447,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" si="5"/>
         <v>6.0999999999999943</v>
@@ -15484,7 +15473,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" s="2">
         <f t="shared" si="5"/>
         <v>6.199999999999994</v>
@@ -15510,7 +15499,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="2">
         <f t="shared" si="5"/>
         <v>6.2999999999999936</v>
@@ -15536,7 +15525,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="2">
         <f t="shared" si="5"/>
         <v>6.3999999999999932</v>
@@ -15562,7 +15551,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E68" s="2">
         <f t="shared" si="5"/>
         <v>6.4999999999999929</v>
@@ -15588,7 +15577,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E69" s="2">
         <f t="shared" si="5"/>
         <v>6.5999999999999925</v>
@@ -15614,7 +15603,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" s="2">
         <f t="shared" si="5"/>
         <v>6.6999999999999922</v>
@@ -15640,7 +15629,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="2">
         <f t="shared" si="5"/>
         <v>6.7999999999999918</v>
@@ -15666,7 +15655,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E72" s="2">
         <f t="shared" si="5"/>
         <v>6.8999999999999915</v>
@@ -15692,7 +15681,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <f t="shared" si="5"/>
         <v>6.9999999999999911</v>
@@ -15737,14 +15726,14 @@
       <selection activeCell="E1" sqref="E1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -15759,7 +15748,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -15784,7 +15773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -15814,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>60</v>
       </c>
@@ -15847,7 +15836,7 @@
         <v>2.598076211353316</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -15880,7 +15869,7 @@
         <v>3.9753968009297003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -15913,7 +15902,7 @@
         <v>4.9369204441866179</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>25</v>
       </c>
@@ -15948,7 +15937,7 @@
         <v>5.643553639230011</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.2050000000000001</v>
       </c>
@@ -15981,7 +15970,7 @@
         <v>6.1657833176174677</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1.8099999999999999E-5</v>
       </c>
@@ -16014,7 +16003,7 @@
         <v>6.5414482670245153</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -16040,7 +16029,7 @@
         <v>6.7929464704918239</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -16066,7 +16055,7 @@
         <v>6.9342048734615496</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -16092,7 +16081,7 @@
         <v>6.9741247518048723</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -16118,7 +16107,7 @@
         <v>6.9186794495385824</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -16144,7 +16133,7 @@
         <v>6.7725135490732251</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -16170,7 +16159,7 @@
         <v>6.5402296865593224</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -16196,7 +16185,7 @@
         <v>6.2271937726128712</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -16222,7 +16211,7 @@
         <v>5.839782941890423</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -16248,7 +16237,7 @@
         <v>5.3852285260101027</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -16274,7 +16263,7 @@
         <v>4.8712590252282455</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -16300,7 +16289,7 @@
         <v>4.3056951044279215</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f>E20+$A$5</f>
         <v>1.8000000000000005</v>
@@ -16326,7 +16315,7 @@
         <v>3.696088456212113</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" ref="E22:E25" si="6">E21+$A$5</f>
         <v>1.9000000000000006</v>
@@ -16352,7 +16341,7 @@
         <v>3.0494499298840121</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="6"/>
         <v>2.0000000000000004</v>
@@ -16378,7 +16367,7 @@
         <v>2.3720789803936144</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="6"/>
         <v>2.1000000000000005</v>
@@ -16404,7 +16393,7 @@
         <v>1.6694851707741605</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="6"/>
         <v>2.2000000000000006</v>
@@ -16430,7 +16419,7 @@
         <v>0.94638176274919639</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f>E25+$A$5</f>
         <v>2.3000000000000007</v>
@@ -16456,7 +16445,7 @@
         <v>0.20672877273280044</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" ref="E27:E29" si="12">E26+$A$5</f>
         <v>2.4000000000000008</v>
@@ -16482,7 +16471,7 @@
         <v>-0.54619485572632231</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="12"/>
         <v>2.5000000000000009</v>
@@ -16508,7 +16497,7 @@
         <v>-0.54619485572632231</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="12"/>
         <v>2.600000000000001</v>
@@ -16553,13 +16542,13 @@
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16574,7 +16563,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -16599,7 +16588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>30</v>
       </c>
@@ -16629,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>60</v>
       </c>
@@ -16662,7 +16651,7 @@
         <v>2.598076211353316</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -16695,7 +16684,7 @@
         <v>5.0980524227066315</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -16728,7 +16717,7 @@
         <v>7.4999286340599465</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>25</v>
       </c>
@@ -16763,7 +16752,7 @@
         <v>9.8037048454132609</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0</v>
       </c>
@@ -16796,7 +16785,7 @@
         <v>12.009381056766577</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0</v>
       </c>
@@ -16829,7 +16818,7 @@
         <v>14.116957268119892</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -16855,7 +16844,7 @@
         <v>16.126433479473206</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -16881,7 +16870,7 @@
         <v>18.037809690826521</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -16907,7 +16896,7 @@
         <v>19.851085902179836</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -16933,7 +16922,7 @@
         <v>21.566262113533149</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -16959,7 +16948,7 @@
         <v>23.183338324886464</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -16985,7 +16974,7 @@
         <v>24.702314536239779</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -17011,7 +17000,7 @@
         <v>26.123190747593092</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -17037,7 +17026,7 @@
         <v>27.445966958946407</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -17063,7 +17052,7 @@
         <v>28.670643170299719</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -17089,7 +17078,7 @@
         <v>29.797219381653033</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -17115,7 +17104,7 @@
         <v>30.825695593006348</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -17141,7 +17130,7 @@
         <v>31.75607180435966</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -17167,7 +17156,7 @@
         <v>32.588348015712974</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -17193,7 +17182,7 @@
         <v>33.322524227066289</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -17219,7 +17208,7 @@
         <v>33.958600438419602</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -17245,7 +17234,7 @@
         <v>34.496576649772919</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -17271,7 +17260,7 @@
         <v>34.936452861126234</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -17297,7 +17286,7 @@
         <v>35.278229072479547</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -17323,7 +17312,7 @@
         <v>35.521905283832865</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -17349,7 +17338,7 @@
         <v>35.66748149518618</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
@@ -17375,7 +17364,7 @@
         <v>35.714957706539494</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
@@ -17401,7 +17390,7 @@
         <v>35.664333917892804</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
@@ -17427,7 +17416,7 @@
         <v>35.51561012924612</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
@@ -17453,7 +17442,7 @@
         <v>35.268786340599434</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
@@ -17479,7 +17468,7 @@
         <v>34.923862551952745</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
@@ -17505,7 +17494,7 @@
         <v>34.48083876330606</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
@@ -17531,7 +17520,7 @@
         <v>33.939714974659374</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
@@ -17557,7 +17546,7 @@
         <v>33.300491186012685</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
@@ -17583,7 +17572,7 @@
         <v>32.563167397366001</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>3.6000000000000019</v>
@@ -17609,7 +17598,7 @@
         <v>31.727743608719315</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>3.700000000000002</v>
@@ -17635,7 +17624,7 @@
         <v>30.79421982007263</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>3.800000000000002</v>
@@ -17661,7 +17650,7 @@
         <v>29.762596031425943</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>3.9000000000000021</v>
@@ -17687,7 +17676,7 @@
         <v>28.632872242779257</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" ref="E43:E57" si="6">E42+$A$5</f>
         <v>4.0000000000000018</v>
@@ -17713,7 +17702,7 @@
         <v>27.405048454132572</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="6"/>
         <v>4.1000000000000014</v>
@@ -17739,7 +17728,7 @@
         <v>26.079124665485885</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="6"/>
         <v>4.2000000000000011</v>
@@ -17765,7 +17754,7 @@
         <v>24.655100876839199</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="6"/>
         <v>4.3000000000000007</v>
@@ -17791,7 +17780,7 @@
         <v>23.132977088192515</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
@@ -17817,7 +17806,7 @@
         <v>21.512753299545828</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="6"/>
         <v>4.5</v>
@@ -17843,7 +17832,7 @@
         <v>19.794429510899143</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
@@ -17869,7 +17858,7 @@
         <v>17.978005722252455</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f t="shared" si="6"/>
         <v>4.6999999999999993</v>
@@ -17895,7 +17884,7 @@
         <v>16.063481933605768</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f t="shared" si="6"/>
         <v>4.7999999999999989</v>
@@ -17921,7 +17910,7 @@
         <v>14.050858144959081</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" si="6"/>
         <v>4.8999999999999986</v>
@@ -17947,7 +17936,7 @@
         <v>11.940134356312395</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" si="6"/>
         <v>4.9999999999999982</v>
@@ -17973,7 +17962,7 @@
         <v>9.7313105676657088</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" si="6"/>
         <v>5.0999999999999979</v>
@@ -17999,7 +17988,7 @@
         <v>7.4243867790190219</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" si="6"/>
         <v>5.1999999999999975</v>
@@ -18025,7 +18014,7 @@
         <v>5.0193629903723345</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" si="6"/>
         <v>5.2999999999999972</v>
@@ -18051,7 +18040,7 @@
         <v>2.516239201725647</v>
       </c>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E57" s="12">
         <f t="shared" si="6"/>
         <v>5.3999999999999968</v>
@@ -18077,7 +18066,7 @@
         <v>-8.4984586921040606E-2</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -18104,13 +18093,13 @@
       <selection activeCell="E1" sqref="E1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -18125,7 +18114,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -18150,7 +18139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -18180,7 +18169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -18213,7 +18202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -18246,7 +18235,7 @@
         <v>9.9395175769230768</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -18279,7 +18268,7 @@
         <v>9.8239279035334235</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2600</v>
       </c>
@@ -18314,7 +18303,7 @@
         <v>9.6643307457935794</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>997</v>
       </c>
@@ -18347,7 +18336,7 @@
         <v>9.4744318145443351</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.01</v>
       </c>
@@ -18380,7 +18369,7 @@
         <v>9.2661754247712569</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -18406,7 +18395,7 @@
         <v>9.0477828284145687</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -18432,7 +18421,7 @@
         <v>8.8241049065207662</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -18458,7 +18447,7 @@
         <v>8.5977546751777609</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -18484,7 +18473,7 @@
         <v>8.3700727204199374</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -18510,7 +18499,7 @@
         <v>8.1417306924258916</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -18536,7 +18525,7 @@
         <v>7.9130617001437571</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -18562,7 +18551,7 @@
         <v>7.6842304441126785</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -18588,7 +18577,7 @@
         <v>7.45531840407914</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -18614,7 +18603,7 @@
         <v>7.2263659884917679</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -18640,7 +18629,7 @@
         <v>6.9973933068613503</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -18666,7 +18655,7 @@
         <v>6.7684104071990756</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -18692,7 +18681,7 @@
         <v>6.5394223319943396</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -18718,7 +18707,7 @@
         <v>6.3104316232250159</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -18744,7 +18733,7 @@
         <v>6.081439568239106</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -18770,7 +18759,7 @@
         <v>5.8524468220099068</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -18796,7 +18785,7 @@
         <v>5.6234537192998912</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -18822,7 +18811,7 @@
         <v>5.394460431977941</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -18848,7 +18837,7 @@
         <v>5.1654670486676268</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -18874,7 +18863,7 @@
         <v>4.9364736152593709</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -18900,7 +18889,7 @@
         <v>4.7074801556110994</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
@@ -18926,7 +18915,7 @@
         <v>4.4784866821733651</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000012</v>
@@ -18952,7 +18941,7 @@
         <v>4.2494932014668096</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000012</v>
@@ -18978,7 +18967,7 @@
         <v>4.0204997169178025</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000013</v>
@@ -19004,7 +18993,7 @@
         <v>3.7915062303323293</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000014</v>
@@ -19030,7 +19019,7 @@
         <v>3.5625127426649992</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000015</v>
@@ -19056,7 +19045,7 @@
         <v>3.3335192544217107</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000016</v>
@@ -19082,7 +19071,7 @@
         <v>3.1045257658712013</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000017</v>
@@ -19108,7 +19097,7 @@
         <v>2.8755322771565335</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000018</v>
@@ -19134,7 +19123,7 @@
         <v>2.6465387883540137</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f>E38+$A$5</f>
         <v>3.6000000000000019</v>
@@ -19160,7 +19149,7 @@
         <v>2.4175452995044129</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" ref="E40:E50" si="6">E39+$A$5</f>
         <v>3.700000000000002</v>
@@ -19186,7 +19175,7 @@
         <v>2.1885518106295496</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="6"/>
         <v>3.800000000000002</v>
@@ -19212,7 +19201,7 @@
         <v>1.9595583217411163</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="6"/>
         <v>3.9000000000000021</v>
@@ -19238,7 +19227,7 @@
         <v>1.7305648328453866</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" si="6"/>
         <v>4.0000000000000018</v>
@@ -19264,7 +19253,7 @@
         <v>1.5015713439457303</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="6"/>
         <v>4.1000000000000014</v>
@@ -19290,7 +19279,7 @@
         <v>1.2725778550439593</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="6"/>
         <v>4.2000000000000011</v>
@@ -19316,7 +19305,7 @@
         <v>1.0435843661410487</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="6"/>
         <v>4.3000000000000007</v>
@@ -19342,7 +19331,7 @@
         <v>0.81459087723752344</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="6"/>
         <v>4.4000000000000004</v>
@@ -19368,7 +19357,7 @@
         <v>0.58559738833366659</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="6"/>
         <v>4.5</v>
@@ -19394,7 +19383,7 @@
         <v>0.35660389942963078</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
@@ -19420,7 +19409,7 @@
         <v>0.12761041052549835</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="12">
         <f t="shared" si="6"/>
         <v>4.6999999999999993</v>
@@ -19446,7 +19435,7 @@
         <v>-0.10138307837868632</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -19474,13 +19463,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -19495,7 +19484,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -19520,7 +19509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -19550,7 +19539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -19583,7 +19572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.1</v>
       </c>
@@ -19616,7 +19605,7 @@
         <v>9.9143276620076239</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -19649,7 +19638,7 @@
         <v>9.7462167035933049</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>7870</v>
       </c>
@@ -19684,7 +19673,7 @@
         <v>9.5036276854860251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>997</v>
       </c>
@@ -19717,7 +19706,7 @@
         <v>9.198153247079917</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.01</v>
       </c>
@@ -19750,7 +19739,7 @@
         <v>8.8428420049211773</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>0.7</v>
@@ -19776,7 +19765,7 @@
         <v>8.450154842585972</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>0.79999999999999993</v>
@@ -19802,7 +19791,7 @@
         <v>8.0306660042489657</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>0.89999999999999991</v>
@@ -19828,7 +19817,7 @@
         <v>7.5926057561691493</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
@@ -19854,7 +19843,7 @@
         <v>7.1419936151410512</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.0999999999999999</v>
@@ -19880,7 +19869,7 @@
         <v>6.6830442968341002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -19906,7 +19895,7 @@
         <v>6.2186221619831192</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3</v>
@@ -19932,7 +19921,7 @@
         <v>5.7506353960987484</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -19958,7 +19947,7 @@
         <v>5.2803386037350988</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000002</v>
@@ -19984,7 +19973,7 @@
         <v>4.8085496554734073</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000003</v>
@@ -20010,7 +19999,7 @@
         <v>4.3357988007571686</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000004</v>
@@ -20036,7 +20025,7 @@
         <v>3.8624286217111221</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000005</v>
@@ -20062,7 +20051,7 @@
         <v>3.388659972707504</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.9000000000000006</v>
@@ -20088,7 +20077,7 @@
         <v>2.9146350451047724</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000004</v>
@@ -20114,7 +20103,7 @@
         <v>2.4404453146311549</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
@@ -20140,7 +20129,7 @@
         <v>1.9661496059887229</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000006</v>
@@ -20166,7 +20155,7 @@
         <v>1.4917857404734831</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000007</v>
@@ -20192,7 +20181,7 @@
         <v>1.0173780346766004</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000008</v>
@@ -20218,7 +20207,7 @@
         <v>0.54294212378362361</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000009</v>
@@ -20244,7 +20233,7 @@
         <v>6.8488062458224974E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>2.600000000000001</v>
@@ -20270,7 +20259,7 @@
         <v>-0.40597768208698864</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -20294,16 +20283,16 @@
   <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -20318,7 +20307,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -20343,7 +20332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -20373,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -20406,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1E-3</v>
       </c>
@@ -20439,7 +20428,7 @@
         <v>3.8141280000000008E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -20472,7 +20461,7 @@
         <v>1.1163526274502074E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>25</v>
       </c>
@@ -20507,7 +20496,7 @@
         <v>2.1570657227706421E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>997</v>
       </c>
@@ -20540,7 +20529,7 @@
         <v>3.4400370967050571E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.01</v>
       </c>
@@ -20573,7 +20562,7 @@
         <v>4.8998349807409256E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
@@ -20599,7 +20588,7 @@
         <v>6.480247265085148E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
@@ -20625,7 +20614,7 @@
         <v>8.1388628804954944E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>9.0000000000000011E-3</v>
@@ -20651,7 +20640,7 @@
         <v>9.8464418944281887E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
@@ -20677,7 +20666,7 @@
         <v>1.15839946568675E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.1000000000000003E-2</v>
@@ -20703,7 +20692,7 @@
         <v>1.3339646746878327E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2000000000000004E-2</v>
@@ -20729,7 +20718,7 @@
         <v>1.5106142190075625E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3000000000000005E-2</v>
@@ -20755,7 +20744,7 @@
         <v>1.6879106688188893E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000005E-2</v>
@@ -20781,7 +20770,7 @@
         <v>1.8655923087684788E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000006E-2</v>
@@ -20807,7 +20796,7 @@
         <v>2.0435031725513125E-2</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000007E-2</v>
@@ -20833,7 +20822,7 @@
         <v>2.2215504788648716E-2</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000008E-2</v>
@@ -20859,7 +20848,7 @@
         <v>2.3996790600020461E-2</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000009E-2</v>
@@ -20885,7 +20874,7 @@
         <v>2.5778561032811287E-2</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.900000000000001E-2</v>
@@ -20911,7 +20900,7 @@
         <v>2.7560620774062225E-2</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000011E-2</v>
@@ -20937,7 +20926,7 @@
         <v>2.9342853445780484E-2</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000012E-2</v>
@@ -20963,7 +20952,7 @@
         <v>3.112518962078516E-2</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000013E-2</v>
@@ -20989,7 +20978,7 @@
         <v>3.2907587827992232E-2</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000013E-2</v>
@@ -21015,7 +21004,7 @@
         <v>3.4690023262458639E-2</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000014E-2</v>
@@ -21041,7 +21030,7 @@
         <v>3.6472481067693796E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000015E-2</v>
@@ -21067,7 +21056,7 @@
         <v>3.8254952333650352E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.6000000000000016E-2</v>
@@ -21093,7 +21082,7 @@
         <v>4.0037431709448831E-2</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000017E-2</v>
@@ -21119,7 +21108,7 @@
         <v>4.1819915977402353E-2</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000018E-2</v>
@@ -21145,7 +21134,7 @@
         <v>4.3602403200083795E-2</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000019E-2</v>
@@ -21171,7 +21160,7 @@
         <v>4.5384892209453589E-2</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.000000000000002E-2</v>
@@ -21197,7 +21186,7 @@
         <v>4.7167382300451172E-2</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000021E-2</v>
@@ -21223,7 +21212,7 @@
         <v>4.8949873046971244E-2</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000021E-2</v>
@@ -21249,7 +21238,7 @@
         <v>5.0732364191195922E-2</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000022E-2</v>
@@ -21275,7 +21264,7 @@
         <v>5.2514855576955045E-2</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000023E-2</v>
@@ -21301,7 +21290,7 @@
         <v>5.4297347109547589E-2</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000024E-2</v>
@@ -21327,7 +21316,7 @@
         <v>5.6079838731487149E-2</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>3.6000000000000025E-2</v>
@@ -21353,7 +21342,7 @@
         <v>5.7862330407842673E-2</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>3.7000000000000026E-2</v>
@@ -21379,7 +21368,7 @@
         <v>5.9644822117368226E-2</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>3.8000000000000027E-2</v>
@@ -21405,7 +21394,7 @@
         <v>6.1427313847129593E-2</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>3.9000000000000028E-2</v>
@@ -21431,7 +21420,7 @@
         <v>6.3209805589245702E-2</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000029E-2</v>
@@ -21457,7 +21446,7 @@
         <v>6.4992297338910432E-2</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>4.1000000000000029E-2</v>
@@ -21483,7 +21472,7 @@
         <v>6.6774789093190512E-2</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>4.200000000000003E-2</v>
@@ -21509,7 +21498,7 @@
         <v>6.8557280850294375E-2</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>4.3000000000000031E-2</v>
@@ -21535,7 +21524,7 @@
         <v>7.033977260912698E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>4.4000000000000032E-2</v>
@@ -21561,7 +21550,7 @@
         <v>7.2122264369018557E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>4.5000000000000033E-2</v>
@@ -21587,7 +21576,7 @@
         <v>7.3904756129559185E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>4.6000000000000034E-2</v>
@@ -21613,7 +21602,7 @@
         <v>7.5687247890497841E-2</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>4.7000000000000035E-2</v>
@@ -21639,7 +21628,7 @@
         <v>7.7469739651680691E-2</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>4.8000000000000036E-2</v>
@@ -21665,7 +21654,7 @@
         <v>7.9252231413013435E-2</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>4.9000000000000037E-2</v>
@@ -21691,7 +21680,7 @@
         <v>8.1034723174438231E-2</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000037E-2</v>
@@ -21717,7 +21706,7 @@
         <v>8.2817214935919578E-2</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>5.1000000000000038E-2</v>
@@ -21743,7 +21732,7 @@
         <v>8.4599706697435689E-2</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>5.2000000000000039E-2</v>
@@ -21769,7 +21758,7 @@
         <v>8.6382198458973158E-2</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>5.300000000000004E-2</v>
@@ -21795,7 +21784,7 @@
         <v>8.816469022052377E-2</v>
       </c>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" si="0"/>
         <v>5.4000000000000041E-2</v>
@@ -21821,7 +21810,7 @@
         <v>8.9947181982082472E-2</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>5.5000000000000042E-2</v>
@@ -21847,7 +21836,7 @@
         <v>9.1729673743646142E-2</v>
       </c>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>5.6000000000000043E-2</v>
@@ -21873,7 +21862,7 @@
         <v>9.351216550521288E-2</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>5.7000000000000044E-2</v>
@@ -21899,7 +21888,7 @@
         <v>9.5294657266781505E-2</v>
       </c>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>5.8000000000000045E-2</v>
@@ -21925,7 +21914,7 @@
         <v>9.7077149028351281E-2</v>
       </c>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f t="shared" si="0"/>
         <v>5.9000000000000045E-2</v>
@@ -21951,7 +21940,7 @@
         <v>9.8859640789921779E-2</v>
       </c>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f t="shared" si="0"/>
         <v>6.0000000000000046E-2</v>
@@ -21977,7 +21966,7 @@
         <v>0.10064213255149272</v>
       </c>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" si="0"/>
         <v>6.1000000000000047E-2</v>
@@ -22003,7 +21992,7 @@
         <v>0.10242462431306393</v>
       </c>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" s="2">
         <f t="shared" si="0"/>
         <v>6.2000000000000048E-2</v>
@@ -22029,7 +22018,7 @@
         <v>0.1042071160746353</v>
       </c>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="2">
         <f t="shared" si="0"/>
         <v>6.3000000000000042E-2</v>
@@ -22055,7 +22044,7 @@
         <v>0.10598960783620678</v>
       </c>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="2">
         <f t="shared" si="0"/>
         <v>6.4000000000000043E-2</v>
@@ -22081,7 +22070,7 @@
         <v>0.10777209959777832</v>
       </c>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E68" s="2">
         <f t="shared" si="0"/>
         <v>6.5000000000000044E-2</v>
@@ -22107,7 +22096,7 @@
         <v>0.1095545913593499</v>
       </c>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E69" s="2">
         <f t="shared" ref="E69:E132" si="6">E68+$A$5</f>
         <v>6.6000000000000045E-2</v>
@@ -22133,7 +22122,7 @@
         <v>0.11133708312092151</v>
       </c>
     </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" s="2">
         <f t="shared" si="6"/>
         <v>6.7000000000000046E-2</v>
@@ -22159,7 +22148,7 @@
         <v>0.11311957488249313</v>
       </c>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="2">
         <f t="shared" si="6"/>
         <v>6.8000000000000047E-2</v>
@@ -22185,7 +22174,7 @@
         <v>0.11490206664406477</v>
       </c>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E72" s="2">
         <f t="shared" si="6"/>
         <v>6.9000000000000047E-2</v>
@@ -22211,7 +22200,7 @@
         <v>0.11668455840563641</v>
       </c>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <f t="shared" si="6"/>
         <v>7.0000000000000048E-2</v>
@@ -22237,7 +22226,7 @@
         <v>0.11846705016720804</v>
       </c>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" si="6"/>
         <v>7.1000000000000049E-2</v>
@@ -22263,7 +22252,7 @@
         <v>0.12024954192877968</v>
       </c>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" si="6"/>
         <v>7.200000000000005E-2</v>
@@ -22289,7 +22278,7 @@
         <v>0.12203203369035132</v>
       </c>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" si="6"/>
         <v>7.3000000000000051E-2</v>
@@ -22315,7 +22304,7 @@
         <v>0.12381452545192295</v>
       </c>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" si="6"/>
         <v>7.4000000000000052E-2</v>
@@ -22341,7 +22330,7 @@
         <v>0.12559701721349459</v>
       </c>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" si="6"/>
         <v>7.5000000000000053E-2</v>
@@ -22367,7 +22356,7 @@
         <v>0.12737950897506622</v>
       </c>
     </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" si="6"/>
         <v>7.6000000000000054E-2</v>
@@ -22393,7 +22382,7 @@
         <v>0.12916200073663786</v>
       </c>
     </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" si="6"/>
         <v>7.7000000000000055E-2</v>
@@ -22419,7 +22408,7 @@
         <v>0.1309444924982095</v>
       </c>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" si="6"/>
         <v>7.8000000000000055E-2</v>
@@ -22445,7 +22434,7 @@
         <v>0.13272698425978113</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" si="6"/>
         <v>7.9000000000000056E-2</v>
@@ -22471,7 +22460,7 @@
         <v>0.13450947602135277</v>
       </c>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" si="6"/>
         <v>8.0000000000000057E-2</v>
@@ -22497,7 +22486,7 @@
         <v>0.13629196778292441</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" si="6"/>
         <v>8.1000000000000058E-2</v>
@@ -22523,7 +22512,7 @@
         <v>0.13807445954449604</v>
       </c>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" si="6"/>
         <v>8.2000000000000059E-2</v>
@@ -22549,7 +22538,7 @@
         <v>0.13985695130606768</v>
       </c>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E86" s="2">
         <f t="shared" si="6"/>
         <v>8.300000000000006E-2</v>
@@ -22575,7 +22564,7 @@
         <v>0.14163944306763931</v>
       </c>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E87" s="2">
         <f t="shared" si="6"/>
         <v>8.4000000000000061E-2</v>
@@ -22601,7 +22590,7 @@
         <v>0.14342193482921095</v>
       </c>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E88" s="2">
         <f t="shared" si="6"/>
         <v>8.5000000000000062E-2</v>
@@ -22627,7 +22616,7 @@
         <v>0.14520442659078259</v>
       </c>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E89" s="2">
         <f t="shared" si="6"/>
         <v>8.6000000000000063E-2</v>
@@ -22653,7 +22642,7 @@
         <v>0.14698691835235422</v>
       </c>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E90" s="2">
         <f t="shared" si="6"/>
         <v>8.7000000000000063E-2</v>
@@ -22679,7 +22668,7 @@
         <v>0.14876941011392586</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E91" s="2">
         <f t="shared" si="6"/>
         <v>8.8000000000000064E-2</v>
@@ -22705,7 +22694,7 @@
         <v>0.1505519018754975</v>
       </c>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E92" s="2">
         <f t="shared" si="6"/>
         <v>8.9000000000000065E-2</v>
@@ -22731,7 +22720,7 @@
         <v>0.15233439363706913</v>
       </c>
     </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E93" s="2">
         <f t="shared" si="6"/>
         <v>9.0000000000000066E-2</v>
@@ -22757,7 +22746,7 @@
         <v>0.15411688539864077</v>
       </c>
     </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E94" s="2">
         <f t="shared" si="6"/>
         <v>9.1000000000000067E-2</v>
@@ -22783,7 +22772,7 @@
         <v>0.1558993771602124</v>
       </c>
     </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E95" s="2">
         <f t="shared" si="6"/>
         <v>9.2000000000000068E-2</v>
@@ -22809,7 +22798,7 @@
         <v>0.15768186892178404</v>
       </c>
     </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E96" s="2">
         <f t="shared" si="6"/>
         <v>9.3000000000000069E-2</v>
@@ -22835,7 +22824,7 @@
         <v>0.15946436068335568</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E97" s="2">
         <f t="shared" si="6"/>
         <v>9.400000000000007E-2</v>
@@ -22861,7 +22850,7 @@
         <v>0.16124685244492731</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E98" s="2">
         <f t="shared" si="6"/>
         <v>9.500000000000007E-2</v>
@@ -22887,7 +22876,7 @@
         <v>0.16302934420649895</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E99" s="2">
         <f t="shared" si="6"/>
         <v>9.6000000000000071E-2</v>
@@ -22913,7 +22902,7 @@
         <v>0.16481183596807059</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E100" s="2">
         <f t="shared" si="6"/>
         <v>9.7000000000000072E-2</v>
@@ -22939,7 +22928,7 @@
         <v>0.16659432772964222</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E101" s="2">
         <f t="shared" si="6"/>
         <v>9.8000000000000073E-2</v>
@@ -22965,7 +22954,7 @@
         <v>0.16837681949121386</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E102" s="2">
         <f t="shared" si="6"/>
         <v>9.9000000000000074E-2</v>
@@ -22991,7 +22980,7 @@
         <v>0.17015931125278549</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E103" s="2">
         <f t="shared" si="6"/>
         <v>0.10000000000000007</v>
@@ -23017,7 +23006,7 @@
         <v>0.17194180301435713</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E104" s="2">
         <f t="shared" si="6"/>
         <v>0.10100000000000008</v>
@@ -23043,7 +23032,7 @@
         <v>0.17372429477592877</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E105" s="2">
         <f t="shared" si="6"/>
         <v>0.10200000000000008</v>
@@ -23069,7 +23058,7 @@
         <v>0.1755067865375004</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E106" s="2">
         <f t="shared" si="6"/>
         <v>0.10300000000000008</v>
@@ -23095,7 +23084,7 @@
         <v>0.17728927829907204</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E107" s="2">
         <f t="shared" si="6"/>
         <v>0.10400000000000008</v>
@@ -23121,7 +23110,7 @@
         <v>0.17907177006064368</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E108" s="2">
         <f t="shared" si="6"/>
         <v>0.10500000000000008</v>
@@ -23147,7 +23136,7 @@
         <v>0.18085426182221531</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E109" s="2">
         <f t="shared" si="6"/>
         <v>0.10600000000000008</v>
@@ -23173,7 +23162,7 @@
         <v>0.18263675358378695</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E110" s="2">
         <f t="shared" si="6"/>
         <v>0.10700000000000008</v>
@@ -23199,7 +23188,7 @@
         <v>0.18441924534535858</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E111" s="2">
         <f t="shared" si="6"/>
         <v>0.10800000000000008</v>
@@ -23225,7 +23214,7 @@
         <v>0.18620173710693022</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E112" s="2">
         <f t="shared" si="6"/>
         <v>0.10900000000000008</v>
@@ -23251,7 +23240,7 @@
         <v>0.18798422886850186</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" s="2">
         <f t="shared" si="6"/>
         <v>0.11000000000000008</v>
@@ -23277,7 +23266,7 @@
         <v>0.18976672063007349</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" s="2">
         <f t="shared" si="6"/>
         <v>0.11100000000000008</v>
@@ -23303,7 +23292,7 @@
         <v>0.19154921239164513</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" s="2">
         <f t="shared" si="6"/>
         <v>0.11200000000000009</v>
@@ -23329,7 +23318,7 @@
         <v>0.19333170415321677</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" s="2">
         <f t="shared" si="6"/>
         <v>0.11300000000000009</v>
@@ -23355,7 +23344,7 @@
         <v>0.1951141959147884</v>
       </c>
     </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" s="2">
         <f t="shared" si="6"/>
         <v>0.11400000000000009</v>
@@ -23381,7 +23370,7 @@
         <v>0.19689668767636004</v>
       </c>
     </row>
-    <row r="118" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" s="2">
         <f t="shared" si="6"/>
         <v>0.11500000000000009</v>
@@ -23407,7 +23396,7 @@
         <v>0.19867917943793167</v>
       </c>
     </row>
-    <row r="119" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" s="2">
         <f t="shared" si="6"/>
         <v>0.11600000000000009</v>
@@ -23433,7 +23422,7 @@
         <v>0.20046167119950331</v>
       </c>
     </row>
-    <row r="120" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" s="2">
         <f t="shared" si="6"/>
         <v>0.11700000000000009</v>
@@ -23459,7 +23448,7 @@
         <v>0.20224416296107495</v>
       </c>
     </row>
-    <row r="121" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" s="2">
         <f t="shared" si="6"/>
         <v>0.11800000000000009</v>
@@ -23485,7 +23474,7 @@
         <v>0.20402665472264658</v>
       </c>
     </row>
-    <row r="122" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" s="2">
         <f t="shared" si="6"/>
         <v>0.11900000000000009</v>
@@ -23511,7 +23500,7 @@
         <v>0.20580914648421822</v>
       </c>
     </row>
-    <row r="123" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" s="2">
         <f t="shared" si="6"/>
         <v>0.12000000000000009</v>
@@ -23537,7 +23526,7 @@
         <v>0.20759163824578986</v>
       </c>
     </row>
-    <row r="124" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" s="2">
         <f t="shared" si="6"/>
         <v>0.12100000000000009</v>
@@ -23563,7 +23552,7 @@
         <v>0.20937413000736149</v>
       </c>
     </row>
-    <row r="125" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" s="2">
         <f t="shared" si="6"/>
         <v>0.12200000000000009</v>
@@ -23589,7 +23578,7 @@
         <v>0.21115662176893313</v>
       </c>
     </row>
-    <row r="126" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" s="2">
         <f t="shared" si="6"/>
         <v>0.1230000000000001</v>
@@ -23615,7 +23604,7 @@
         <v>0.21293911353050476</v>
       </c>
     </row>
-    <row r="127" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" s="2">
         <f t="shared" si="6"/>
         <v>0.1240000000000001</v>
@@ -23641,7 +23630,7 @@
         <v>0.2147216052920764</v>
       </c>
     </row>
-    <row r="128" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" s="2">
         <f t="shared" si="6"/>
         <v>0.12500000000000008</v>
@@ -23667,7 +23656,7 @@
         <v>0.21650409705364804</v>
       </c>
     </row>
-    <row r="129" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129" s="2">
         <f t="shared" si="6"/>
         <v>0.12600000000000008</v>
@@ -23693,7 +23682,7 @@
         <v>0.21828658881521967</v>
       </c>
     </row>
-    <row r="130" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130" s="2">
         <f t="shared" si="6"/>
         <v>0.12700000000000009</v>
@@ -23719,7 +23708,7 @@
         <v>0.22006908057679131</v>
       </c>
     </row>
-    <row r="131" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E131" s="2">
         <f t="shared" si="6"/>
         <v>0.12800000000000009</v>
@@ -23745,7 +23734,7 @@
         <v>0.22185157233836295</v>
       </c>
     </row>
-    <row r="132" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E132" s="2">
         <f t="shared" si="6"/>
         <v>0.12900000000000009</v>
@@ -23771,7 +23760,7 @@
         <v>0.22363406409993458</v>
       </c>
     </row>
-    <row r="133" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E133" s="2">
         <f t="shared" ref="E133:E196" si="12">E132+$A$5</f>
         <v>0.13000000000000009</v>
@@ -23797,7 +23786,7 @@
         <v>0.22541655586150622</v>
       </c>
     </row>
-    <row r="134" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E134" s="2">
         <f t="shared" si="12"/>
         <v>0.13100000000000009</v>
@@ -23823,7 +23812,7 @@
         <v>0.22719904762307785</v>
       </c>
     </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E135" s="2">
         <f t="shared" si="12"/>
         <v>0.13200000000000009</v>
@@ -23849,7 +23838,7 @@
         <v>0.22898153938464949</v>
       </c>
     </row>
-    <row r="136" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E136" s="2">
         <f t="shared" si="12"/>
         <v>0.13300000000000009</v>
@@ -23875,7 +23864,7 @@
         <v>0.23076403114622113</v>
       </c>
     </row>
-    <row r="137" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E137" s="2">
         <f t="shared" si="12"/>
         <v>0.13400000000000009</v>
@@ -23901,7 +23890,7 @@
         <v>0.23254652290779276</v>
       </c>
     </row>
-    <row r="138" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E138" s="2">
         <f t="shared" si="12"/>
         <v>0.13500000000000009</v>
@@ -23927,7 +23916,7 @@
         <v>0.2343290146693644</v>
       </c>
     </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E139" s="2">
         <f t="shared" si="12"/>
         <v>0.13600000000000009</v>
@@ -23953,7 +23942,7 @@
         <v>0.23611150643093604</v>
       </c>
     </row>
-    <row r="140" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E140" s="2">
         <f t="shared" si="12"/>
         <v>0.13700000000000009</v>
@@ -23979,7 +23968,7 @@
         <v>0.23789399819250767</v>
       </c>
     </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E141" s="2">
         <f t="shared" si="12"/>
         <v>0.13800000000000009</v>
@@ -24005,7 +23994,7 @@
         <v>0.23967648995407931</v>
       </c>
     </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E142" s="2">
         <f t="shared" si="12"/>
         <v>0.1390000000000001</v>
@@ -24031,7 +24020,7 @@
         <v>0.24145898171565094</v>
       </c>
     </row>
-    <row r="143" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E143" s="2">
         <f t="shared" si="12"/>
         <v>0.1400000000000001</v>
@@ -24057,7 +24046,7 @@
         <v>0.24324147347722258</v>
       </c>
     </row>
-    <row r="144" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E144" s="2">
         <f t="shared" si="12"/>
         <v>0.1410000000000001</v>
@@ -24083,7 +24072,7 @@
         <v>0.24502396523879422</v>
       </c>
     </row>
-    <row r="145" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E145" s="2">
         <f t="shared" si="12"/>
         <v>0.1420000000000001</v>
@@ -24109,7 +24098,7 @@
         <v>0.24680645700036585</v>
       </c>
     </row>
-    <row r="146" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E146" s="2">
         <f t="shared" si="12"/>
         <v>0.1430000000000001</v>
@@ -24135,7 +24124,7 @@
         <v>0.24858894876193749</v>
       </c>
     </row>
-    <row r="147" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E147" s="2">
         <f t="shared" si="12"/>
         <v>0.1440000000000001</v>
@@ -24161,7 +24150,7 @@
         <v>0.25037144052350913</v>
       </c>
     </row>
-    <row r="148" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E148" s="2">
         <f t="shared" si="12"/>
         <v>0.1450000000000001</v>
@@ -24187,7 +24176,7 @@
         <v>0.25215393228508076</v>
       </c>
     </row>
-    <row r="149" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E149" s="2">
         <f t="shared" si="12"/>
         <v>0.1460000000000001</v>
@@ -24213,7 +24202,7 @@
         <v>0.2539364240466524</v>
       </c>
     </row>
-    <row r="150" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E150" s="2">
         <f t="shared" si="12"/>
         <v>0.1470000000000001</v>
@@ -24239,7 +24228,7 @@
         <v>0.25571891580822403</v>
       </c>
     </row>
-    <row r="151" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E151" s="2">
         <f t="shared" si="12"/>
         <v>0.1480000000000001</v>
@@ -24265,7 +24254,7 @@
         <v>0.25750140756979567</v>
       </c>
     </row>
-    <row r="152" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E152" s="2">
         <f t="shared" si="12"/>
         <v>0.1490000000000001</v>
@@ -24291,7 +24280,7 @@
         <v>0.25928389933136731</v>
       </c>
     </row>
-    <row r="153" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E153" s="2">
         <f t="shared" si="12"/>
         <v>0.15000000000000011</v>
@@ -24317,7 +24306,7 @@
         <v>0.26106639109293894</v>
       </c>
     </row>
-    <row r="154" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E154" s="2">
         <f t="shared" si="12"/>
         <v>0.15100000000000011</v>
@@ -24343,7 +24332,7 @@
         <v>0.26284888285451058</v>
       </c>
     </row>
-    <row r="155" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E155" s="2">
         <f t="shared" si="12"/>
         <v>0.15200000000000011</v>
@@ -24369,7 +24358,7 @@
         <v>0.26463137461608222</v>
       </c>
     </row>
-    <row r="156" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E156" s="2">
         <f t="shared" si="12"/>
         <v>0.15300000000000011</v>
@@ -24395,7 +24384,7 @@
         <v>0.26641386637765385</v>
       </c>
     </row>
-    <row r="157" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E157" s="2">
         <f t="shared" si="12"/>
         <v>0.15400000000000011</v>
@@ -24421,7 +24410,7 @@
         <v>0.26819635813922549</v>
       </c>
     </row>
-    <row r="158" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E158" s="2">
         <f t="shared" si="12"/>
         <v>0.15500000000000011</v>
@@ -24447,7 +24436,7 @@
         <v>0.26997884990079712</v>
       </c>
     </row>
-    <row r="159" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E159" s="2">
         <f t="shared" si="12"/>
         <v>0.15600000000000011</v>
@@ -24473,7 +24462,7 @@
         <v>0.27176134166236876</v>
       </c>
     </row>
-    <row r="160" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E160" s="2">
         <f t="shared" si="12"/>
         <v>0.15700000000000011</v>
@@ -24499,7 +24488,7 @@
         <v>0.2735438334239404</v>
       </c>
     </row>
-    <row r="161" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E161" s="2">
         <f t="shared" si="12"/>
         <v>0.15800000000000011</v>
@@ -24525,7 +24514,7 @@
         <v>0.27532632518551203</v>
       </c>
     </row>
-    <row r="162" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E162" s="2">
         <f t="shared" si="12"/>
         <v>0.15900000000000011</v>
@@ -24551,7 +24540,7 @@
         <v>0.27710881694708367</v>
       </c>
     </row>
-    <row r="163" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E163" s="2">
         <f t="shared" si="12"/>
         <v>0.16000000000000011</v>
@@ -24577,7 +24566,7 @@
         <v>0.27889130870865531</v>
       </c>
     </row>
-    <row r="164" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E164" s="2">
         <f t="shared" si="12"/>
         <v>0.16100000000000012</v>
@@ -24603,7 +24592,7 @@
         <v>0.28067380047022694</v>
       </c>
     </row>
-    <row r="165" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E165" s="2">
         <f t="shared" si="12"/>
         <v>0.16200000000000012</v>
@@ -24629,7 +24618,7 @@
         <v>0.28245629223179858</v>
       </c>
     </row>
-    <row r="166" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E166" s="2">
         <f t="shared" si="12"/>
         <v>0.16300000000000012</v>
@@ -24655,7 +24644,7 @@
         <v>0.28423878399337021</v>
       </c>
     </row>
-    <row r="167" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E167" s="2">
         <f t="shared" si="12"/>
         <v>0.16400000000000012</v>
@@ -24681,7 +24670,7 @@
         <v>0.28602127575494185</v>
       </c>
     </row>
-    <row r="168" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E168" s="2">
         <f t="shared" si="12"/>
         <v>0.16500000000000012</v>
@@ -24707,7 +24696,7 @@
         <v>0.28780376751651349</v>
       </c>
     </row>
-    <row r="169" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E169" s="2">
         <f t="shared" si="12"/>
         <v>0.16600000000000012</v>
@@ -24733,7 +24722,7 @@
         <v>0.28958625927808512</v>
       </c>
     </row>
-    <row r="170" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E170" s="2">
         <f t="shared" si="12"/>
         <v>0.16700000000000012</v>
@@ -24759,7 +24748,7 @@
         <v>0.29136875103965676</v>
       </c>
     </row>
-    <row r="171" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E171" s="2">
         <f t="shared" si="12"/>
         <v>0.16800000000000012</v>
@@ -24785,7 +24774,7 @@
         <v>0.2931512428012284</v>
       </c>
     </row>
-    <row r="172" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E172" s="2">
         <f t="shared" si="12"/>
         <v>0.16900000000000012</v>
@@ -24811,7 +24800,7 @@
         <v>0.29493373456280003</v>
       </c>
     </row>
-    <row r="173" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E173" s="2">
         <f t="shared" si="12"/>
         <v>0.17000000000000012</v>
@@ -24837,7 +24826,7 @@
         <v>0.29671622632437167</v>
       </c>
     </row>
-    <row r="174" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E174" s="2">
         <f t="shared" si="12"/>
         <v>0.17100000000000012</v>
@@ -24863,7 +24852,7 @@
         <v>0.2984987180859433</v>
       </c>
     </row>
-    <row r="175" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E175" s="2">
         <f t="shared" si="12"/>
         <v>0.17200000000000013</v>
@@ -24889,7 +24878,7 @@
         <v>0.30028120984751494</v>
       </c>
     </row>
-    <row r="176" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E176" s="2">
         <f t="shared" si="12"/>
         <v>0.17300000000000013</v>
@@ -24915,7 +24904,7 @@
         <v>0.30206370160908658</v>
       </c>
     </row>
-    <row r="177" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E177" s="2">
         <f t="shared" si="12"/>
         <v>0.17400000000000013</v>
@@ -24941,7 +24930,7 @@
         <v>0.30384619337065821</v>
       </c>
     </row>
-    <row r="178" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E178" s="2">
         <f t="shared" si="12"/>
         <v>0.17500000000000013</v>
@@ -24967,7 +24956,7 @@
         <v>0.30562868513222985</v>
       </c>
     </row>
-    <row r="179" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E179" s="2">
         <f t="shared" si="12"/>
         <v>0.17600000000000013</v>
@@ -24993,7 +24982,7 @@
         <v>0.30741117689380149</v>
       </c>
     </row>
-    <row r="180" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E180" s="2">
         <f t="shared" si="12"/>
         <v>0.17700000000000013</v>
@@ -25019,7 +25008,7 @@
         <v>0.30919366865537312</v>
       </c>
     </row>
-    <row r="181" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E181" s="2">
         <f t="shared" si="12"/>
         <v>0.17800000000000013</v>
@@ -25045,7 +25034,7 @@
         <v>0.31097616041694476</v>
       </c>
     </row>
-    <row r="182" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E182" s="2">
         <f t="shared" si="12"/>
         <v>0.17900000000000013</v>
@@ -25071,7 +25060,7 @@
         <v>0.31275865217851639</v>
       </c>
     </row>
-    <row r="183" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E183" s="2">
         <f t="shared" si="12"/>
         <v>0.18000000000000013</v>
@@ -25097,7 +25086,7 @@
         <v>0.31454114394008803</v>
       </c>
     </row>
-    <row r="184" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E184" s="2">
         <f t="shared" si="12"/>
         <v>0.18100000000000013</v>
@@ -25123,7 +25112,7 @@
         <v>0.31632363570165967</v>
       </c>
     </row>
-    <row r="185" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E185" s="2">
         <f t="shared" si="12"/>
         <v>0.18200000000000013</v>
@@ -25149,7 +25138,7 @@
         <v>0.3181061274632313</v>
       </c>
     </row>
-    <row r="186" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E186" s="2">
         <f t="shared" si="12"/>
         <v>0.18300000000000013</v>
@@ -25175,7 +25164,7 @@
         <v>0.31988861922480294</v>
       </c>
     </row>
-    <row r="187" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E187" s="2">
         <f t="shared" si="12"/>
         <v>0.18400000000000014</v>
@@ -25201,7 +25190,7 @@
         <v>0.32167111098637458</v>
       </c>
     </row>
-    <row r="188" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E188" s="2">
         <f t="shared" si="12"/>
         <v>0.18500000000000014</v>
@@ -25227,7 +25216,7 @@
         <v>0.32345360274794621</v>
       </c>
     </row>
-    <row r="189" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E189" s="2">
         <f t="shared" si="12"/>
         <v>0.18600000000000014</v>
@@ -25253,7 +25242,7 @@
         <v>0.32523609450951785</v>
       </c>
     </row>
-    <row r="190" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E190" s="2">
         <f t="shared" si="12"/>
         <v>0.18700000000000014</v>
@@ -25279,7 +25268,7 @@
         <v>0.32701858627108948</v>
       </c>
     </row>
-    <row r="191" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E191" s="2">
         <f t="shared" si="12"/>
         <v>0.18800000000000014</v>
@@ -25305,7 +25294,7 @@
         <v>0.32880107803266112</v>
       </c>
     </row>
-    <row r="192" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E192" s="2">
         <f t="shared" si="12"/>
         <v>0.18900000000000014</v>
@@ -25331,7 +25320,7 @@
         <v>0.33058356979423276</v>
       </c>
     </row>
-    <row r="193" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E193" s="2">
         <f t="shared" si="12"/>
         <v>0.19000000000000014</v>
@@ -25357,7 +25346,7 @@
         <v>0.33236606155580439</v>
       </c>
     </row>
-    <row r="194" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E194" s="2">
         <f t="shared" si="12"/>
         <v>0.19100000000000014</v>
@@ -25383,7 +25372,7 @@
         <v>0.33414855331737603</v>
       </c>
     </row>
-    <row r="195" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E195" s="2">
         <f t="shared" si="12"/>
         <v>0.19200000000000014</v>
@@ -25409,7 +25398,7 @@
         <v>0.33593104507894767</v>
       </c>
     </row>
-    <row r="196" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E196" s="2">
         <f t="shared" si="12"/>
         <v>0.19300000000000014</v>
@@ -25435,7 +25424,7 @@
         <v>0.3377135368405193</v>
       </c>
     </row>
-    <row r="197" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E197" s="2">
         <f t="shared" ref="E197:E206" si="18">E196+$A$5</f>
         <v>0.19400000000000014</v>
@@ -25461,7 +25450,7 @@
         <v>0.33949602860209094</v>
       </c>
     </row>
-    <row r="198" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E198" s="2">
         <f t="shared" si="18"/>
         <v>0.19500000000000015</v>
@@ -25487,7 +25476,7 @@
         <v>0.34127852036366257</v>
       </c>
     </row>
-    <row r="199" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E199" s="2">
         <f t="shared" si="18"/>
         <v>0.19600000000000015</v>
@@ -25513,7 +25502,7 @@
         <v>0.34306101212523421</v>
       </c>
     </row>
-    <row r="200" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E200" s="2">
         <f t="shared" si="18"/>
         <v>0.19700000000000015</v>
@@ -25539,7 +25528,7 @@
         <v>0.34484350388680585</v>
       </c>
     </row>
-    <row r="201" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E201" s="2">
         <f t="shared" si="18"/>
         <v>0.19800000000000015</v>
@@ -25565,7 +25554,7 @@
         <v>0.34662599564837748</v>
       </c>
     </row>
-    <row r="202" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E202" s="2">
         <f t="shared" si="18"/>
         <v>0.19900000000000015</v>
@@ -25591,7 +25580,7 @@
         <v>0.34840848740994912</v>
       </c>
     </row>
-    <row r="203" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E203" s="2">
         <f t="shared" si="18"/>
         <v>0.20000000000000015</v>
@@ -25617,7 +25606,7 @@
         <v>0.35019097917152076</v>
       </c>
     </row>
-    <row r="204" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E204" s="2">
         <f t="shared" si="18"/>
         <v>0.20100000000000015</v>
@@ -25643,7 +25632,7 @@
         <v>0.35197347093309239</v>
       </c>
     </row>
-    <row r="205" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E205" s="2">
         <f t="shared" si="18"/>
         <v>0.20200000000000015</v>
@@ -25669,7 +25658,7 @@
         <v>0.35375596269466403</v>
       </c>
     </row>
-    <row r="206" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E206" s="2">
         <f t="shared" si="18"/>
         <v>0.20300000000000015</v>
@@ -25710,18 +25699,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23589A65-01EC-47D9-B4F8-9F5C1D56C096}">
   <dimension ref="A1:J320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>18</v>
       </c>
@@ -25736,7 +25725,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -25761,7 +25750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -25791,7 +25780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -25824,7 +25813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1E-3</v>
       </c>
@@ -25857,7 +25846,7 @@
         <v>1.1924600000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.05</v>
       </c>
@@ -25890,7 +25879,7 @@
         <v>3.5733815575572617E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>450</v>
       </c>
@@ -25925,7 +25914,7 @@
         <v>7.1387993111565246E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>997</v>
       </c>
@@ -25958,7 +25947,7 @@
         <v>1.1884773802470302E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.01</v>
       </c>
@@ -25991,7 +25980,7 @@
         <v>1.7807384440966499E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000001E-3</v>
@@ -26017,7 +26006,7 @@
         <v>2.4902722627563134E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
@@ -26043,7 +26032,7 @@
         <v>3.3166885053759513E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>9.0000000000000011E-3</v>
@@ -26069,7 +26058,7 @@
         <v>4.2595967192165851E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
@@ -26095,7 +26084,7 @@
         <v>5.3186056993622494E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>1.1000000000000003E-2</v>
@@ -26121,7 +26110,7 @@
         <v>6.4933228805163904E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>1.2000000000000004E-2</v>
@@ -26147,7 +26136,7 @@
         <v>7.7833537521965364E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>1.3000000000000005E-2</v>
@@ -26173,7 +26162,7 @@
         <v>9.188301298513799E-4</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>1.4000000000000005E-2</v>
@@ -26199,7 +26188,7 @@
         <v>1.0707765463584043E-3</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>1.5000000000000006E-2</v>
@@ -26225,7 +26214,7 @@
         <v>1.2341342643468381E-3</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>1.6000000000000007E-2</v>
@@ -26251,7 +26240,7 @@
         <v>1.4088625205385223E-3</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.7000000000000008E-2</v>
@@ -26277,7 +26266,7 @@
         <v>1.5949201034777477E-3</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.8000000000000009E-2</v>
@@ -26303,7 +26292,7 @@
         <v>1.7922653110659563E-3</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>1.900000000000001E-2</v>
@@ -26329,7 +26318,7 @@
         <v>2.0008559109512478E-3</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000000011E-2</v>
@@ -26355,7 +26344,7 @@
         <v>2.2206491037843504E-3</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" s="2">
         <f t="shared" si="0"/>
         <v>2.1000000000000012E-2</v>
@@ -26381,7 +26370,7 @@
         <v>2.4516014893382451E-3</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <f t="shared" si="0"/>
         <v>2.2000000000000013E-2</v>
@@ -26407,7 +26396,7 @@
         <v>2.6936690354750271E-3</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>2.3000000000000013E-2</v>
@@ -26433,7 +26422,7 @@
         <v>2.9468070499309783E-3</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>2.4000000000000014E-2</v>
@@ -26459,7 +26448,7 @@
         <v>3.2109701548793117E-3</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" si="0"/>
         <v>2.5000000000000015E-2</v>
@@ -26485,7 +26474,7 @@
         <v>3.4861122642196982E-3</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" si="0"/>
         <v>2.6000000000000016E-2</v>
@@ -26511,7 +26500,7 @@
         <v>3.7721865635345184E-3</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" si="0"/>
         <v>2.7000000000000017E-2</v>
@@ -26537,7 +26526,7 @@
         <v>4.0691454926438256E-3</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" si="0"/>
         <v>2.8000000000000018E-2</v>
@@ -26563,7 +26552,7 @@
         <v>4.3769407306842026E-3</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" si="0"/>
         <v>2.9000000000000019E-2</v>
@@ -26589,7 +26578,7 @@
         <v>4.6955231836310497E-3</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" si="0"/>
         <v>3.000000000000002E-2</v>
@@ -26615,7 +26604,7 @@
         <v>5.0248429741792415E-3</v>
       </c>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" si="0"/>
         <v>3.1000000000000021E-2</v>
@@ -26641,7 +26630,7 @@
         <v>5.3648494338935414E-3</v>
       </c>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" si="0"/>
         <v>3.2000000000000021E-2</v>
@@ -26667,7 +26656,7 @@
         <v>5.7154910975374899E-3</v>
       </c>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" si="0"/>
         <v>3.3000000000000022E-2</v>
@@ -26693,7 +26682,7 @@
         <v>6.0767156994877116E-3</v>
       </c>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>3.4000000000000023E-2</v>
@@ -26719,7 +26708,7 @@
         <v>6.4484701721395365E-3</v>
       </c>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" si="0"/>
         <v>3.5000000000000024E-2</v>
@@ -26745,7 +26734,7 @@
         <v>6.8307006462094717E-3</v>
       </c>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" si="0"/>
         <v>3.6000000000000025E-2</v>
@@ -26771,7 +26760,7 @@
         <v>7.2233524528403092E-3</v>
       </c>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" si="0"/>
         <v>3.7000000000000026E-2</v>
@@ -26797,7 +26786,7 @@
         <v>7.6263701274153911E-3</v>
       </c>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" si="0"/>
         <v>3.8000000000000027E-2</v>
@@ -26823,7 +26812,7 @@
         <v>8.0396974149897476E-3</v>
       </c>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42" s="2">
         <f t="shared" si="0"/>
         <v>3.9000000000000028E-2</v>
@@ -26849,7 +26838,7 @@
         <v>8.4632772772473795E-3</v>
       </c>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43" s="2">
         <f t="shared" si="0"/>
         <v>4.0000000000000029E-2</v>
@@ -26875,7 +26864,7 @@
         <v>8.8970519008958089E-3</v>
       </c>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44" s="2">
         <f t="shared" si="0"/>
         <v>4.1000000000000029E-2</v>
@@ -26901,7 +26890,7 @@
         <v>9.34096270741115E-3</v>
       </c>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f t="shared" si="0"/>
         <v>4.200000000000003E-2</v>
@@ -26927,7 +26916,7 @@
         <v>9.7949503640492215E-3</v>
       </c>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f t="shared" si="0"/>
         <v>4.3000000000000031E-2</v>
@@ -26953,7 +26942,7 @@
         <v>1.0258954796040698E-2</v>
       </c>
     </row>
-    <row r="47" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E47" s="2">
         <f t="shared" si="0"/>
         <v>4.4000000000000032E-2</v>
@@ -26979,7 +26968,7 @@
         <v>1.0732915199890839E-2</v>
       </c>
     </row>
-    <row r="48" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E48" s="2">
         <f t="shared" si="0"/>
         <v>4.5000000000000033E-2</v>
@@ -27005,7 +26994,7 @@
         <v>1.1216770057706977E-2</v>
       </c>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E49" s="2">
         <f t="shared" si="0"/>
         <v>4.6000000000000034E-2</v>
@@ -27031,7 +27020,7 @@
         <v>1.1710457152479599E-2</v>
       </c>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E50" s="2">
         <f t="shared" si="0"/>
         <v>4.7000000000000035E-2</v>
@@ -27057,7 +27046,7 @@
         <v>1.2213913584245562E-2</v>
       </c>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f t="shared" si="0"/>
         <v>4.8000000000000036E-2</v>
@@ -27083,7 +27072,7 @@
         <v>1.2727075787064678E-2</v>
       </c>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" si="0"/>
         <v>4.9000000000000037E-2</v>
@@ -27109,7 +27098,7 @@
         <v>1.3249879546743552E-2</v>
       </c>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" si="0"/>
         <v>5.0000000000000037E-2</v>
@@ -27135,7 +27124,7 @@
         <v>1.3782260019243181E-2</v>
       </c>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" si="0"/>
         <v>5.1000000000000038E-2</v>
@@ -27161,7 +27150,7 @@
         <v>1.4324151749709449E-2</v>
       </c>
     </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" si="0"/>
         <v>5.2000000000000039E-2</v>
@@ -27187,7 +27176,7 @@
         <v>1.4875488692068145E-2</v>
       </c>
     </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" si="0"/>
         <v>5.300000000000004E-2</v>
@@ -27213,7 +27202,7 @@
         <v>1.54362042291286E-2</v>
       </c>
     </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" si="0"/>
         <v>5.4000000000000041E-2</v>
@@ -27239,7 +27228,7 @@
         <v>1.600623119314248E-2</v>
       </c>
     </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f t="shared" si="0"/>
         <v>5.5000000000000042E-2</v>
@@ -27265,7 +27254,7 @@
         <v>1.6585501886766552E-2</v>
       </c>
     </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f t="shared" si="0"/>
         <v>5.6000000000000043E-2</v>
@@ -27291,7 +27280,7 @@
         <v>1.7173948104380533E-2</v>
       </c>
     </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" si="0"/>
         <v>5.7000000000000044E-2</v>
@@ -27317,7 +27306,7 @@
         <v>1.7771501153713353E-2</v>
       </c>
     </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" si="0"/>
         <v>5.8000000000000045E-2</v>
@@ -27343,7 +27332,7 @@
         <v>1.8378091877733163E-2</v>
       </c>
     </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f t="shared" si="0"/>
         <v>5.9000000000000045E-2</v>
@@ -27369,7 +27358,7 @@
         <v>1.8993650676758626E-2</v>
       </c>
     </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f t="shared" si="0"/>
         <v>6.0000000000000046E-2</v>
@@ -27395,7 +27384,7 @@
         <v>1.9618107530750859E-2</v>
       </c>
     </row>
-    <row r="64" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" si="0"/>
         <v>6.1000000000000047E-2</v>
@@ -27421,7 +27410,7 @@
         <v>2.0251392021747396E-2</v>
       </c>
     </row>
-    <row r="65" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E65" s="2">
         <f t="shared" si="0"/>
         <v>6.2000000000000048E-2</v>
@@ -27447,7 +27436,7 @@
         <v>2.0893433356401293E-2</v>
       </c>
     </row>
-    <row r="66" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E66" s="2">
         <f t="shared" si="0"/>
         <v>6.3000000000000042E-2</v>
@@ -27473,7 +27462,7 @@
         <v>2.1544160388590364E-2</v>
       </c>
     </row>
-    <row r="67" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E67" s="2">
         <f t="shared" si="0"/>
         <v>6.4000000000000043E-2</v>
@@ -27499,7 +27488,7 @@
         <v>2.2203501642063164E-2</v>
       </c>
     </row>
-    <row r="68" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E68" s="2">
         <f t="shared" si="0"/>
         <v>6.5000000000000044E-2</v>
@@ -27525,7 +27514,7 @@
         <v>2.2871385333090005E-2</v>
       </c>
     </row>
-    <row r="69" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E69" s="2">
         <f t="shared" ref="E69:E96" si="6">E68+$A$5</f>
         <v>6.6000000000000045E-2</v>
@@ -27551,7 +27540,7 @@
         <v>2.3547739393088917E-2</v>
       </c>
     </row>
-    <row r="70" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E70" s="2">
         <f t="shared" si="6"/>
         <v>6.7000000000000046E-2</v>
@@ -27577,7 +27566,7 @@
         <v>2.4232491491197935E-2</v>
       </c>
     </row>
-    <row r="71" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E71" s="2">
         <f t="shared" si="6"/>
         <v>6.8000000000000047E-2</v>
@@ -27603,7 +27592,7 @@
         <v>2.4925569056766628E-2</v>
       </c>
     </row>
-    <row r="72" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E72" s="2">
         <f t="shared" si="6"/>
         <v>6.9000000000000047E-2</v>
@@ -27629,7 +27618,7 @@
         <v>2.5626899301741172E-2</v>
       </c>
     </row>
-    <row r="73" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <f t="shared" si="6"/>
         <v>7.0000000000000048E-2</v>
@@ -27655,7 +27644,7 @@
         <v>2.6336409242918683E-2</v>
       </c>
     </row>
-    <row r="74" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" si="6"/>
         <v>7.1000000000000049E-2</v>
@@ -27681,7 +27670,7 @@
         <v>2.7054025724047814E-2</v>
       </c>
     </row>
-    <row r="75" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" si="6"/>
         <v>7.200000000000005E-2</v>
@@ -27707,7 +27696,7 @@
         <v>2.7779675437753931E-2</v>
       </c>
     </row>
-    <row r="76" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" si="6"/>
         <v>7.3000000000000051E-2</v>
@@ -27733,7 +27722,7 @@
         <v>2.8513284947268427E-2</v>
       </c>
     </row>
-    <row r="77" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" si="6"/>
         <v>7.4000000000000052E-2</v>
@@ -27759,7 +27748,7 @@
         <v>2.9254780707942928E-2</v>
       </c>
     </row>
-    <row r="78" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="78" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" si="6"/>
         <v>7.5000000000000053E-2</v>
@@ -27785,7 +27774,7 @@
         <v>3.0004089088530271E-2</v>
       </c>
     </row>
-    <row r="79" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="79" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" si="6"/>
         <v>7.6000000000000054E-2</v>
@@ -27811,7 +27800,7 @@
         <v>3.0761136392215293E-2</v>
       </c>
     </row>
-    <row r="80" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" si="6"/>
         <v>7.7000000000000055E-2</v>
@@ -27837,7 +27826,7 @@
         <v>3.152584887737956E-2</v>
       </c>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" si="6"/>
         <v>7.8000000000000055E-2</v>
@@ -27863,7 +27852,7 @@
         <v>3.2298152778085128E-2</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" si="6"/>
         <v>7.9000000000000056E-2</v>
@@ -27889,7 +27878,7 @@
         <v>3.307797432426357E-2</v>
       </c>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" si="6"/>
         <v>8.0000000000000057E-2</v>
@@ -27915,7 +27904,7 @@
         <v>3.386523976159736E-2</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" si="6"/>
         <v>8.1000000000000058E-2</v>
@@ -27941,7 +27930,7 @@
         <v>3.4659875371081693E-2</v>
       </c>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" si="6"/>
         <v>8.2000000000000059E-2</v>
@@ -27967,7 +27956,7 @@
         <v>3.5461807488255753E-2</v>
       </c>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E86" s="2">
         <f t="shared" si="6"/>
         <v>8.300000000000006E-2</v>
@@ -27993,7 +27982,7 @@
         <v>3.627096252209331E-2</v>
       </c>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E87" s="2">
         <f t="shared" si="6"/>
         <v>8.4000000000000061E-2</v>
@@ -28019,7 +28008,7 @@
         <v>3.7087266973543309E-2</v>
       </c>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E88" s="2">
         <f t="shared" si="6"/>
         <v>8.5000000000000062E-2</v>
@@ -28045,7 +28034,7 @@
         <v>3.7910647453712094E-2</v>
       </c>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E89" s="2">
         <f t="shared" si="6"/>
         <v>8.6000000000000063E-2</v>
@@ -28071,7 +28060,7 @@
         <v>3.8741030701679509E-2</v>
       </c>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E90" s="2">
         <f t="shared" si="6"/>
         <v>8.7000000000000063E-2</v>
@@ -28097,7 +28086,7 @@
         <v>3.9578343601942033E-2</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E91" s="2">
         <f t="shared" si="6"/>
         <v>8.8000000000000064E-2</v>
@@ -28123,7 +28112,7 @@
         <v>4.0422513201476738E-2</v>
       </c>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E92" s="2">
         <f t="shared" si="6"/>
         <v>8.9000000000000065E-2</v>
@@ -28149,7 +28138,7 @@
         <v>4.1273466726420689E-2</v>
       </c>
     </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E93" s="2">
         <f t="shared" si="6"/>
         <v>9.0000000000000066E-2</v>
@@ -28175,7 +28164,7 @@
         <v>4.2131131598360946E-2</v>
       </c>
     </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E94" s="2">
         <f t="shared" si="6"/>
         <v>9.1000000000000067E-2</v>
@@ -28201,7 +28190,7 @@
         <v>4.2995435450231094E-2</v>
       </c>
     </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E95" s="2">
         <f t="shared" si="6"/>
         <v>9.2000000000000068E-2</v>
@@ -28227,7 +28216,7 @@
         <v>4.3866306141810807E-2</v>
       </c>
     </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E96" s="2">
         <f t="shared" si="6"/>
         <v>9.3000000000000069E-2</v>
@@ -28253,7 +28242,7 @@
         <v>4.4743671774825598E-2</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E97" s="2">
         <f>E96+$A$5</f>
         <v>9.400000000000007E-2</v>
@@ -28279,7 +28268,7 @@
         <v>4.5627460707644472E-2</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E98" s="2">
         <f t="shared" ref="E98:E160" si="12">E97+$A$5</f>
         <v>9.500000000000007E-2</v>
@@ -28305,7 +28294,7 @@
         <v>4.6517601569573713E-2</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E99" s="2">
         <f t="shared" si="12"/>
         <v>9.6000000000000071E-2</v>
@@ -28331,7 +28320,7 @@
         <v>4.7414023274745684E-2</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E100" s="2">
         <f t="shared" si="12"/>
         <v>9.7000000000000072E-2</v>
@@ -28357,7 +28346,7 @@
         <v>4.8316655035601931E-2</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E101" s="2">
         <f t="shared" si="12"/>
         <v>9.8000000000000073E-2</v>
@@ -28383,7 +28372,7 @@
         <v>4.9225426375970431E-2</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E102" s="2">
         <f t="shared" si="12"/>
         <v>9.9000000000000074E-2</v>
@@ -28409,7 +28398,7 @@
         <v>5.014026714373726E-2</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E103" s="2">
         <f t="shared" si="12"/>
         <v>0.10000000000000007</v>
@@ -28435,7 +28424,7 @@
         <v>5.106110752311345E-2</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E104" s="2">
         <f t="shared" si="12"/>
         <v>0.10100000000000008</v>
@@ -28461,7 +28450,7 @@
         <v>5.1987878046498189E-2</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E105" s="2">
         <f t="shared" si="12"/>
         <v>0.10200000000000008</v>
@@ -28487,7 +28476,7 @@
         <v>5.2920509605939949E-2</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E106" s="2">
         <f t="shared" si="12"/>
         <v>0.10300000000000008</v>
@@ -28513,7 +28502,7 @@
         <v>5.3858933464197525E-2</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E107" s="2">
         <f t="shared" si="12"/>
         <v>0.10400000000000008</v>
@@ -28539,7 +28528,7 @@
         <v>5.4803081265403314E-2</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E108" s="2">
         <f t="shared" si="12"/>
         <v>0.10500000000000008</v>
@@ -28565,7 +28554,7 @@
         <v>5.5752885045331477E-2</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E109" s="2">
         <f t="shared" si="12"/>
         <v>0.10600000000000008</v>
@@ -28591,7 +28580,7 @@
         <v>5.6708277241274113E-2</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E110" s="2">
         <f t="shared" si="12"/>
         <v>0.10700000000000008</v>
@@ -28617,7 +28606,7 @@
         <v>5.766919070152865E-2</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E111" s="2">
         <f t="shared" si="12"/>
         <v>0.10800000000000008</v>
@@ -28643,7 +28632,7 @@
         <v>5.8635558694500149E-2</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E112" s="2">
         <f t="shared" si="12"/>
         <v>0.10900000000000008</v>
@@ -28669,7 +28658,7 @@
         <v>5.960731491742241E-2</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E113" s="2">
         <f t="shared" si="12"/>
         <v>0.11000000000000008</v>
@@ -28695,7 +28684,7 @@
         <v>6.0584393504702044E-2</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E114" s="2">
         <f t="shared" si="12"/>
         <v>0.11100000000000008</v>
@@ -28721,7 +28710,7 @@
         <v>6.1566729035889875E-2</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E115" s="2">
         <f t="shared" si="12"/>
         <v>0.11200000000000009</v>
@@ -28747,7 +28736,7 @@
         <v>6.2554256543284378E-2</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E116" s="2">
         <f t="shared" si="12"/>
         <v>0.11300000000000009</v>
@@ -28773,7 +28762,7 @@
         <v>6.3546911519171911E-2</v>
       </c>
     </row>
-    <row r="117" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="117" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E117" s="2">
         <f t="shared" si="12"/>
         <v>0.11400000000000009</v>
@@ -28799,7 +28788,7 @@
         <v>6.4544629922708832E-2</v>
       </c>
     </row>
-    <row r="118" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E118" s="2">
         <f t="shared" si="12"/>
         <v>0.11500000000000009</v>
@@ -28825,7 +28814,7 @@
         <v>6.5547348186450749E-2</v>
       </c>
     </row>
-    <row r="119" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="119" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E119" s="2">
         <f t="shared" si="12"/>
         <v>0.11600000000000009</v>
@@ -28851,7 +28840,7 @@
         <v>6.6555003222534173E-2</v>
       </c>
     </row>
-    <row r="120" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="120" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E120" s="2">
         <f t="shared" si="12"/>
         <v>0.11700000000000009</v>
@@ -28877,7 +28866,7 @@
         <v>6.756753242851625E-2</v>
       </c>
     </row>
-    <row r="121" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="121" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E121" s="2">
         <f t="shared" si="12"/>
         <v>0.11800000000000009</v>
@@ -28903,7 +28892,7 @@
         <v>6.8584873692878162E-2</v>
       </c>
     </row>
-    <row r="122" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="122" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E122" s="2">
         <f t="shared" si="12"/>
         <v>0.11900000000000009</v>
@@ -28929,7 +28918,7 @@
         <v>6.9606965400198048E-2</v>
       </c>
     </row>
-    <row r="123" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E123" s="2">
         <f t="shared" si="12"/>
         <v>0.12000000000000009</v>
@@ -28955,7 +28944,7 @@
         <v>7.0633746435999317E-2</v>
       </c>
     </row>
-    <row r="124" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E124" s="2">
         <f t="shared" si="12"/>
         <v>0.12100000000000009</v>
@@ -28981,7 +28970,7 @@
         <v>7.166515619128043E-2</v>
       </c>
     </row>
-    <row r="125" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E125" s="2">
         <f t="shared" si="12"/>
         <v>0.12200000000000009</v>
@@ -29007,7 +28996,7 @@
         <v>7.2701134566732231E-2</v>
       </c>
     </row>
-    <row r="126" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E126" s="2">
         <f t="shared" si="12"/>
         <v>0.1230000000000001</v>
@@ -29033,7 +29022,7 @@
         <v>7.3741621976649005E-2</v>
       </c>
     </row>
-    <row r="127" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E127" s="2">
         <f t="shared" si="12"/>
         <v>0.1240000000000001</v>
@@ -29059,7 +29048,7 @@
         <v>7.4786559352539542E-2</v>
       </c>
     </row>
-    <row r="128" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E128" s="2">
         <f t="shared" si="12"/>
         <v>0.12500000000000008</v>
@@ -29085,7 +29074,7 @@
         <v>7.5835888146444513E-2</v>
       </c>
     </row>
-    <row r="129" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E129" s="2">
         <f t="shared" si="12"/>
         <v>0.12600000000000008</v>
@@ -29111,7 +29100,7 @@
         <v>7.6889550333966536E-2</v>
       </c>
     </row>
-    <row r="130" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E130" s="2">
         <f t="shared" si="12"/>
         <v>0.12700000000000009</v>
@@ -29137,7 +29126,7 @@
         <v>7.7947488417019262E-2</v>
       </c>
     </row>
-    <row r="131" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="131" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E131" s="2">
         <f t="shared" si="12"/>
         <v>0.12800000000000009</v>
@@ -29163,7 +29152,7 @@
         <v>7.9009645426302025E-2</v>
       </c>
     </row>
-    <row r="132" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E132" s="2">
         <f t="shared" si="12"/>
         <v>0.12900000000000009</v>
@@ -29189,7 +29178,7 @@
         <v>8.007596492350641E-2</v>
       </c>
     </row>
-    <row r="133" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="133" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E133" s="2">
         <f t="shared" si="12"/>
         <v>0.13000000000000009</v>
@@ -29215,7 +29204,7 @@
         <v>8.1146391003261209E-2</v>
       </c>
     </row>
-    <row r="134" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="134" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E134" s="2">
         <f t="shared" si="12"/>
         <v>0.13100000000000009</v>
@@ -29241,7 +29230,7 @@
         <v>8.222086829482228E-2</v>
       </c>
     </row>
-    <row r="135" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E135" s="2">
         <f t="shared" si="12"/>
         <v>0.13200000000000009</v>
@@ -29267,7 +29256,7 @@
         <v>8.3299341963513671E-2</v>
       </c>
     </row>
-    <row r="136" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E136" s="2">
         <f t="shared" si="12"/>
         <v>0.13300000000000009</v>
@@ -29293,7 +29282,7 @@
         <v>8.4381757711926561E-2</v>
       </c>
     </row>
-    <row r="137" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E137" s="2">
         <f t="shared" si="12"/>
         <v>0.13400000000000009</v>
@@ -29319,7 +29308,7 @@
         <v>8.5468061780882371E-2</v>
       </c>
     </row>
-    <row r="138" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E138" s="2">
         <f t="shared" si="12"/>
         <v>0.13500000000000009</v>
@@ -29345,7 +29334,7 @@
         <v>8.6558200950166475E-2</v>
       </c>
     </row>
-    <row r="139" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="139" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E139" s="2">
         <f t="shared" si="12"/>
         <v>0.13600000000000009</v>
@@ -29371,7 +29360,7 @@
         <v>8.7652122539038813E-2</v>
       </c>
     </row>
-    <row r="140" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="140" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E140" s="2">
         <f t="shared" si="12"/>
         <v>0.13700000000000009</v>
@@ -29397,7 +29386,7 @@
         <v>8.8749774406527898E-2</v>
       </c>
     </row>
-    <row r="141" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="141" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E141" s="2">
         <f t="shared" si="12"/>
         <v>0.13800000000000009</v>
@@ -29423,7 +29412,7 @@
         <v>8.9851104951514271E-2</v>
       </c>
     </row>
-    <row r="142" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="142" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E142" s="2">
         <f t="shared" si="12"/>
         <v>0.1390000000000001</v>
@@ -29449,7 +29438,7 @@
         <v>9.0956063112609911E-2</v>
       </c>
     </row>
-    <row r="143" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="143" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E143" s="2">
         <f t="shared" si="12"/>
         <v>0.1400000000000001</v>
@@ -29475,7 +29464,7 @@
         <v>9.2064598367839492E-2</v>
       </c>
     </row>
-    <row r="144" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="144" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E144" s="2">
         <f t="shared" si="12"/>
         <v>0.1410000000000001</v>
@@ -29501,7 +29490,7 @@
         <v>9.317666073412989E-2</v>
       </c>
     </row>
-    <row r="145" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E145" s="2">
         <f t="shared" si="12"/>
         <v>0.1420000000000001</v>
@@ -29527,7 +29516,7 @@
         <v>9.4292200766613848E-2</v>
       </c>
     </row>
-    <row r="146" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E146" s="2">
         <f t="shared" si="12"/>
         <v>0.1430000000000001</v>
@@ -29553,7 +29542,7 @@
         <v>9.5411169557753764E-2</v>
       </c>
     </row>
-    <row r="147" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="147" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E147" s="2">
         <f t="shared" si="12"/>
         <v>0.1440000000000001</v>
@@ -29579,7 +29568,7 @@
         <v>9.6533518736291735E-2</v>
       </c>
     </row>
-    <row r="148" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="148" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E148" s="2">
         <f t="shared" si="12"/>
         <v>0.1450000000000001</v>
@@ -29605,7 +29594,7 @@
         <v>9.7659200466031451E-2</v>
       </c>
     </row>
-    <row r="149" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="149" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E149" s="2">
         <f t="shared" si="12"/>
         <v>0.1460000000000001</v>
@@ -29631,7 +29620,7 @@
         <v>9.8788167444457925E-2</v>
       </c>
     </row>
-    <row r="150" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="150" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E150" s="2">
         <f t="shared" si="12"/>
         <v>0.1470000000000001</v>
@@ -29657,7 +29646,7 @@
         <v>9.9920372901200649E-2</v>
       </c>
     </row>
-    <row r="151" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E151" s="2">
         <f t="shared" si="12"/>
         <v>0.1480000000000001</v>
@@ -29683,7 +29672,7 @@
         <v>0.10105577059634584</v>
       </c>
     </row>
-    <row r="152" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E152" s="2">
         <f t="shared" si="12"/>
         <v>0.1490000000000001</v>
@@ -29709,7 +29698,7 @@
         <v>0.10219431481860329</v>
       </c>
     </row>
-    <row r="153" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="153" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E153" s="2">
         <f t="shared" si="12"/>
         <v>0.15000000000000011</v>
@@ -29735,7 +29724,7 @@
         <v>0.10333596038333329</v>
       </c>
     </row>
-    <row r="154" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="154" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E154" s="2">
         <f t="shared" si="12"/>
         <v>0.15100000000000011</v>
@@ -29761,7 +29750,7 @@
         <v>0.10448066263043891</v>
       </c>
     </row>
-    <row r="155" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E155" s="2">
         <f t="shared" si="12"/>
         <v>0.15200000000000011</v>
@@ -29787,7 +29776,7 @@
         <v>0.10562837742212905</v>
       </c>
     </row>
-    <row r="156" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="156" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E156" s="2">
         <f t="shared" si="12"/>
         <v>0.15300000000000011</v>
@@ -29813,7 +29802,7 @@
         <v>0.10677906114055728</v>
       </c>
     </row>
-    <row r="157" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="157" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E157" s="2">
         <f t="shared" si="12"/>
         <v>0.15400000000000011</v>
@@ -29839,7 +29828,7 @@
         <v>0.10793267068534164</v>
       </c>
     </row>
-    <row r="158" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E158" s="2">
         <f t="shared" si="12"/>
         <v>0.15500000000000011</v>
@@ -29865,7 +29854,7 @@
         <v>0.10908916347097036</v>
       </c>
     </row>
-    <row r="159" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="159" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E159" s="2">
         <f t="shared" si="12"/>
         <v>0.15600000000000011</v>
@@ -29891,7 +29880,7 @@
         <v>0.11024849742409842</v>
       </c>
     </row>
-    <row r="160" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="160" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E160" s="2">
         <f t="shared" si="12"/>
         <v>0.15700000000000011</v>
@@ -29917,7 +29906,7 @@
         <v>0.11141063098073969</v>
       </c>
     </row>
-    <row r="161" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E161" s="2">
         <f t="shared" ref="E161:E224" si="18">E160+$A$5</f>
         <v>0.15800000000000011</v>
@@ -29943,7 +29932,7 @@
         <v>0.11257552308335937</v>
       </c>
     </row>
-    <row r="162" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="162" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E162" s="2">
         <f t="shared" si="18"/>
         <v>0.15900000000000011</v>
@@ -29969,7 +29958,7 @@
         <v>0.11374313317787137</v>
       </c>
     </row>
-    <row r="163" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="163" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E163" s="2">
         <f t="shared" si="18"/>
         <v>0.16000000000000011</v>
@@ -29995,7 +29984,7 @@
         <v>0.11491342121054508</v>
       </c>
     </row>
-    <row r="164" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E164" s="2">
         <f t="shared" si="18"/>
         <v>0.16100000000000012</v>
@@ -30021,7 +30010,7 @@
         <v>0.11608634762482598</v>
       </c>
     </row>
-    <row r="165" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="165" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E165" s="2">
         <f t="shared" si="18"/>
         <v>0.16200000000000012</v>
@@ -30047,7 +30036,7 @@
         <v>0.11726187335807423</v>
       </c>
     </row>
-    <row r="166" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E166" s="2">
         <f t="shared" si="18"/>
         <v>0.16300000000000012</v>
@@ -30073,7 +30062,7 @@
         <v>0.11843995983822581</v>
       </c>
     </row>
-    <row r="167" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="167" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E167" s="2">
         <f t="shared" si="18"/>
         <v>0.16400000000000012</v>
@@ -30099,7 +30088,7 @@
         <v>0.11962056898037984</v>
       </c>
     </row>
-    <row r="168" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="168" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E168" s="2">
         <f t="shared" si="18"/>
         <v>0.16500000000000012</v>
@@ -30125,7 +30114,7 @@
         <v>0.12080366318331652</v>
       </c>
     </row>
-    <row r="169" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="169" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E169" s="2">
         <f t="shared" si="18"/>
         <v>0.16600000000000012</v>
@@ -30151,7 +30140,7 @@
         <v>0.12198920532594928</v>
       </c>
     </row>
-    <row r="170" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E170" s="2">
         <f t="shared" si="18"/>
         <v>0.16700000000000012</v>
@@ -30177,7 +30166,7 @@
         <v>0.12317715876371521</v>
       </c>
     </row>
-    <row r="171" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E171" s="2">
         <f t="shared" si="18"/>
         <v>0.16800000000000012</v>
@@ -30203,7 +30192,7 @@
         <v>0.1243674873249072</v>
       </c>
     </row>
-    <row r="172" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E172" s="2">
         <f t="shared" si="18"/>
         <v>0.16900000000000012</v>
@@ -30229,7 +30218,7 @@
         <v>0.12556015530695172</v>
       </c>
     </row>
-    <row r="173" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E173" s="2">
         <f t="shared" si="18"/>
         <v>0.17000000000000012</v>
@@ -30255,7 +30244,7 @@
         <v>0.12675512747263559</v>
       </c>
     </row>
-    <row r="174" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E174" s="2">
         <f t="shared" si="18"/>
         <v>0.17100000000000012</v>
@@ -30281,7 +30270,7 @@
         <v>0.12795236904628512</v>
       </c>
     </row>
-    <row r="175" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E175" s="2">
         <f t="shared" si="18"/>
         <v>0.17200000000000013</v>
@@ -30307,7 +30296,7 @@
         <v>0.12915184570990107</v>
       </c>
     </row>
-    <row r="176" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="176" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E176" s="2">
         <f t="shared" si="18"/>
         <v>0.17300000000000013</v>
@@ -30333,7 +30322,7 @@
         <v>0.13035352359925267</v>
       </c>
     </row>
-    <row r="177" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="177" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E177" s="2">
         <f t="shared" si="18"/>
         <v>0.17400000000000013</v>
@@ -30359,7 +30348,7 @@
         <v>0.13155736929993384</v>
       </c>
     </row>
-    <row r="178" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E178" s="2">
         <f t="shared" si="18"/>
         <v>0.17500000000000013</v>
@@ -30385,7 +30374,7 @@
         <v>0.13276334984338442</v>
       </c>
     </row>
-    <row r="179" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E179" s="2">
         <f t="shared" si="18"/>
         <v>0.17600000000000013</v>
@@ -30411,7 +30400,7 @@
         <v>0.13397143270288003</v>
       </c>
     </row>
-    <row r="180" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="180" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E180" s="2">
         <f t="shared" si="18"/>
         <v>0.17700000000000013</v>
@@ -30437,7 +30426,7 @@
         <v>0.13518158578949263</v>
       </c>
     </row>
-    <row r="181" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E181" s="2">
         <f t="shared" si="18"/>
         <v>0.17800000000000013</v>
@@ -30463,7 +30452,7 @@
         <v>0.13639377744802508</v>
       </c>
     </row>
-    <row r="182" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E182" s="2">
         <f t="shared" si="18"/>
         <v>0.17900000000000013</v>
@@ -30489,7 +30478,7 @@
         <v>0.13760797645292244</v>
       </c>
     </row>
-    <row r="183" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E183" s="2">
         <f t="shared" si="18"/>
         <v>0.18000000000000013</v>
@@ -30515,7 +30504,7 @@
         <v>0.13882415200416229</v>
       </c>
     </row>
-    <row r="184" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E184" s="2">
         <f t="shared" si="18"/>
         <v>0.18100000000000013</v>
@@ -30541,7 +30530,7 @@
         <v>0.14004227372312694</v>
       </c>
     </row>
-    <row r="185" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E185" s="2">
         <f t="shared" si="18"/>
         <v>0.18200000000000013</v>
@@ -30567,7 +30556,7 @@
         <v>0.14126231164845982</v>
       </c>
     </row>
-    <row r="186" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E186" s="2">
         <f t="shared" si="18"/>
         <v>0.18300000000000013</v>
@@ -30593,7 +30582,7 @@
         <v>0.14248423623190837</v>
       </c>
     </row>
-    <row r="187" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E187" s="2">
         <f t="shared" si="18"/>
         <v>0.18400000000000014</v>
@@ -30619,7 +30608,7 @@
         <v>0.14370801833415606</v>
       </c>
     </row>
-    <row r="188" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="188" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E188" s="2">
         <f t="shared" si="18"/>
         <v>0.18500000000000014</v>
@@ -30645,7 +30634,7 @@
         <v>0.14493362922064526</v>
       </c>
     </row>
-    <row r="189" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E189" s="2">
         <f t="shared" si="18"/>
         <v>0.18600000000000014</v>
@@ -30671,7 +30660,7 @@
         <v>0.1461610405573936</v>
       </c>
     </row>
-    <row r="190" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="190" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E190" s="2">
         <f t="shared" si="18"/>
         <v>0.18700000000000014</v>
@@ -30697,7 +30686,7 @@
         <v>0.14739022440680541</v>
       </c>
     </row>
-    <row r="191" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E191" s="2">
         <f t="shared" si="18"/>
         <v>0.18800000000000014</v>
@@ -30723,7 +30712,7 @@
         <v>0.1486211532234808</v>
       </c>
     </row>
-    <row r="192" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="192" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E192" s="2">
         <f t="shared" si="18"/>
         <v>0.18900000000000014</v>
@@ -30749,7 +30738,7 @@
         <v>0.14985379985002364</v>
       </c>
     </row>
-    <row r="193" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="193" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E193" s="2">
         <f t="shared" si="18"/>
         <v>0.19000000000000014</v>
@@ -30775,7 +30764,7 @@
         <v>0.15108813751285102</v>
       </c>
     </row>
-    <row r="194" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="194" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E194" s="2">
         <f t="shared" si="18"/>
         <v>0.19100000000000014</v>
@@ -30801,7 +30790,7 @@
         <v>0.15232413981800522</v>
       </c>
     </row>
-    <row r="195" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="195" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E195" s="2">
         <f t="shared" si="18"/>
         <v>0.19200000000000014</v>
@@ -30827,7 +30816,7 @@
         <v>0.15356178074697052</v>
       </c>
     </row>
-    <row r="196" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="196" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E196" s="2">
         <f t="shared" si="18"/>
         <v>0.19300000000000014</v>
@@ -30853,7 +30842,7 @@
         <v>0.15480103465249626</v>
       </c>
     </row>
-    <row r="197" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="197" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E197" s="2">
         <f t="shared" si="18"/>
         <v>0.19400000000000014</v>
@@ -30879,7 +30868,7 @@
         <v>0.15604187625442759</v>
       </c>
     </row>
-    <row r="198" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E198" s="2">
         <f t="shared" si="18"/>
         <v>0.19500000000000015</v>
@@ -30905,7 +30894,7 @@
         <v>0.15728428063554573</v>
       </c>
     </row>
-    <row r="199" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="199" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E199" s="2">
         <f t="shared" si="18"/>
         <v>0.19600000000000015</v>
@@ -30931,7 +30920,7 @@
         <v>0.15852822323741897</v>
       </c>
     </row>
-    <row r="200" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E200" s="2">
         <f t="shared" si="18"/>
         <v>0.19700000000000015</v>
@@ -30957,7 +30946,7 @@
         <v>0.15977367985626592</v>
       </c>
     </row>
-    <row r="201" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="201" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E201" s="2">
         <f t="shared" si="18"/>
         <v>0.19800000000000015</v>
@@ -30983,7 +30972,7 @@
         <v>0.16102062663883229</v>
       </c>
     </row>
-    <row r="202" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="202" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E202" s="2">
         <f t="shared" si="18"/>
         <v>0.19900000000000015</v>
@@ -31009,7 +30998,7 @@
         <v>0.16226904007828255</v>
       </c>
     </row>
-    <row r="203" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E203" s="2">
         <f t="shared" si="18"/>
         <v>0.20000000000000015</v>
@@ -31035,7 +31024,7 @@
         <v>0.16351889701010766</v>
       </c>
     </row>
-    <row r="204" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E204" s="2">
         <f t="shared" si="18"/>
         <v>0.20100000000000015</v>
@@ -31061,7 +31050,7 @@
         <v>0.16477017460804999</v>
       </c>
     </row>
-    <row r="205" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E205" s="2">
         <f t="shared" si="18"/>
         <v>0.20200000000000015</v>
@@ -31087,7 +31076,7 @@
         <v>0.16602285038004669</v>
       </c>
     </row>
-    <row r="206" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="206" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E206" s="2">
         <f t="shared" si="18"/>
         <v>0.20300000000000015</v>
@@ -31113,7 +31102,7 @@
         <v>0.16727690216419241</v>
       </c>
     </row>
-    <row r="207" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="207" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E207" s="2">
         <f t="shared" si="18"/>
         <v>0.20400000000000015</v>
@@ -31139,7 +31128,7 @@
         <v>0.16853230812472259</v>
       </c>
     </row>
-    <row r="208" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E208" s="2">
         <f t="shared" si="18"/>
         <v>0.20500000000000015</v>
@@ -31165,7 +31154,7 @@
         <v>0.16978904674801798</v>
       </c>
     </row>
-    <row r="209" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E209" s="2">
         <f t="shared" si="18"/>
         <v>0.20600000000000016</v>
@@ -31191,7 +31180,7 @@
         <v>0.1710470968386317</v>
       </c>
     </row>
-    <row r="210" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="210" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E210" s="2">
         <f t="shared" si="18"/>
         <v>0.20700000000000016</v>
@@ -31217,7 +31206,7 @@
         <v>0.17230643751533939</v>
       </c>
     </row>
-    <row r="211" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="211" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E211" s="2">
         <f t="shared" si="18"/>
         <v>0.20800000000000016</v>
@@ -31243,7 +31232,7 @@
         <v>0.17356704820721339</v>
       </c>
     </row>
-    <row r="212" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="212" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E212" s="2">
         <f t="shared" si="18"/>
         <v>0.20900000000000016</v>
@@ -31269,7 +31258,7 @@
         <v>0.17482890864972186</v>
       </c>
     </row>
-    <row r="213" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="213" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E213" s="2">
         <f t="shared" si="18"/>
         <v>0.21000000000000016</v>
@@ -31295,7 +31284,7 @@
         <v>0.17609199888085342</v>
       </c>
     </row>
-    <row r="214" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="214" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E214" s="2">
         <f t="shared" si="18"/>
         <v>0.21100000000000016</v>
@@ -31321,7 +31310,7 @@
         <v>0.17735629923726795</v>
       </c>
     </row>
-    <row r="215" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="215" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E215" s="2">
         <f t="shared" si="18"/>
         <v>0.21200000000000016</v>
@@ -31347,7 +31336,7 @@
         <v>0.17862179035047454</v>
       </c>
     </row>
-    <row r="216" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="216" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E216" s="2">
         <f t="shared" si="18"/>
         <v>0.21300000000000016</v>
@@ -31373,7 +31362,7 @@
         <v>0.17988845314303678</v>
       </c>
     </row>
-    <row r="217" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="217" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E217" s="2">
         <f t="shared" si="18"/>
         <v>0.21400000000000016</v>
@@ -31399,7 +31388,7 @@
         <v>0.18115626882480634</v>
       </c>
     </row>
-    <row r="218" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="218" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E218" s="2">
         <f t="shared" si="18"/>
         <v>0.21500000000000016</v>
@@ -31425,7 +31414,7 @@
         <v>0.18242521888918523</v>
       </c>
     </row>
-    <row r="219" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="219" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E219" s="2">
         <f t="shared" si="18"/>
         <v>0.21600000000000016</v>
@@ -31451,7 +31440,7 @@
         <v>0.18369528510941716</v>
       </c>
     </row>
-    <row r="220" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="220" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E220" s="2">
         <f t="shared" si="18"/>
         <v>0.21700000000000016</v>
@@ -31477,7 +31466,7 @@
         <v>0.18496644953490862</v>
       </c>
     </row>
-    <row r="221" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="221" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E221" s="2">
         <f t="shared" si="18"/>
         <v>0.21800000000000017</v>
@@ -31503,7 +31492,7 @@
         <v>0.18623869448758026</v>
       </c>
     </row>
-    <row r="222" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E222" s="2">
         <f t="shared" si="18"/>
         <v>0.21900000000000017</v>
@@ -31529,7 +31518,7 @@
         <v>0.18751200255824849</v>
       </c>
     </row>
-    <row r="223" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="223" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E223" s="2">
         <f t="shared" si="18"/>
         <v>0.22000000000000017</v>
@@ -31555,7 +31544,7 @@
         <v>0.18878635660303825</v>
       </c>
     </row>
-    <row r="224" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="224" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E224" s="2">
         <f t="shared" si="18"/>
         <v>0.22100000000000017</v>
@@ -31581,7 +31570,7 @@
         <v>0.19006173973982704</v>
       </c>
     </row>
-    <row r="225" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="225" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E225" s="2">
         <f t="shared" ref="E225:E288" si="24">E224+$A$5</f>
         <v>0.22200000000000017</v>
@@ -31607,7 +31596,7 @@
         <v>0.19133813534472038</v>
       </c>
     </row>
-    <row r="226" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E226" s="2">
         <f t="shared" si="24"/>
         <v>0.22300000000000017</v>
@@ -31633,7 +31622,7 @@
         <v>0.19261552704855936</v>
       </c>
     </row>
-    <row r="227" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E227" s="2">
         <f t="shared" si="24"/>
         <v>0.22400000000000017</v>
@@ -31659,7 +31648,7 @@
         <v>0.19389389873346022</v>
       </c>
     </row>
-    <row r="228" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E228" s="2">
         <f t="shared" si="24"/>
         <v>0.22500000000000017</v>
@@ -31685,7 +31674,7 @@
         <v>0.1951732345293864</v>
       </c>
     </row>
-    <row r="229" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E229" s="2">
         <f t="shared" si="24"/>
         <v>0.22600000000000017</v>
@@ -31711,7 +31700,7 @@
         <v>0.19645351881075315</v>
       </c>
     </row>
-    <row r="230" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="230" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E230" s="2">
         <f t="shared" si="24"/>
         <v>0.22700000000000017</v>
@@ -31737,7 +31726,7 @@
         <v>0.19773473619306509</v>
       </c>
     </row>
-    <row r="231" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E231" s="2">
         <f t="shared" si="24"/>
         <v>0.22800000000000017</v>
@@ -31763,7 +31752,7 @@
         <v>0.19901687152958653</v>
       </c>
     </row>
-    <row r="232" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="232" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E232" s="2">
         <f t="shared" si="24"/>
         <v>0.22900000000000018</v>
@@ -31789,7 +31778,7 @@
         <v>0.20029990990804517</v>
       </c>
     </row>
-    <row r="233" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E233" s="2">
         <f t="shared" si="24"/>
         <v>0.23000000000000018</v>
@@ -31815,7 +31804,7 @@
         <v>0.20158383664736881</v>
       </c>
     </row>
-    <row r="234" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="234" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E234" s="2">
         <f t="shared" si="24"/>
         <v>0.23100000000000018</v>
@@ -31841,7 +31830,7 @@
         <v>0.20286863729445564</v>
       </c>
     </row>
-    <row r="235" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="235" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E235" s="2">
         <f t="shared" si="24"/>
         <v>0.23200000000000018</v>
@@ -31867,7 +31856,7 @@
         <v>0.20415429762097781</v>
       </c>
     </row>
-    <row r="236" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="236" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E236" s="2">
         <f t="shared" si="24"/>
         <v>0.23300000000000018</v>
@@ -31893,7 +31882,7 @@
         <v>0.2054408036202186</v>
       </c>
     </row>
-    <row r="237" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E237" s="2">
         <f t="shared" si="24"/>
         <v>0.23400000000000018</v>
@@ -31919,7 +31908,7 @@
         <v>0.20672814150394311</v>
       </c>
     </row>
-    <row r="238" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E238" s="2">
         <f t="shared" si="24"/>
         <v>0.23500000000000018</v>
@@ -31945,7 +31934,7 @@
         <v>0.20801629769930252</v>
       </c>
     </row>
-    <row r="239" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="239" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E239" s="2">
         <f t="shared" si="24"/>
         <v>0.23600000000000018</v>
@@ -31971,7 +31960,7 @@
         <v>0.20930525884577195</v>
       </c>
     </row>
-    <row r="240" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="240" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E240" s="2">
         <f t="shared" si="24"/>
         <v>0.23700000000000018</v>
@@ -31997,7 +31986,7 @@
         <v>0.21059501179212192</v>
       </c>
     </row>
-    <row r="241" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E241" s="2">
         <f t="shared" si="24"/>
         <v>0.23800000000000018</v>
@@ -32023,7 +32012,7 @@
         <v>0.21188554359342343</v>
       </c>
     </row>
-    <row r="242" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="242" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E242" s="2">
         <f t="shared" si="24"/>
         <v>0.23900000000000018</v>
@@ -32049,7 +32038,7 @@
         <v>0.21317684150808638</v>
       </c>
     </row>
-    <row r="243" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E243" s="2">
         <f t="shared" si="24"/>
         <v>0.24000000000000019</v>
@@ -32075,7 +32064,7 @@
         <v>0.21446889299493177</v>
       </c>
     </row>
-    <row r="244" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E244" s="2">
         <f t="shared" si="24"/>
         <v>0.24100000000000019</v>
@@ -32101,7 +32090,7 @@
         <v>0.21576168571029697</v>
       </c>
     </row>
-    <row r="245" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E245" s="2">
         <f t="shared" si="24"/>
         <v>0.24200000000000019</v>
@@ -32127,7 +32116,7 @@
         <v>0.21705520750517462</v>
       </c>
     </row>
-    <row r="246" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="246" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E246" s="2">
         <f t="shared" si="24"/>
         <v>0.24300000000000019</v>
@@ -32153,7 +32142,7 @@
         <v>0.21834944642238469</v>
       </c>
     </row>
-    <row r="247" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E247" s="2">
         <f t="shared" si="24"/>
         <v>0.24400000000000019</v>
@@ -32179,7 +32168,7 @@
         <v>0.2196443906937795</v>
       </c>
     </row>
-    <row r="248" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E248" s="2">
         <f t="shared" si="24"/>
         <v>0.24500000000000019</v>
@@ -32205,7 +32194,7 @@
         <v>0.22094002873748214</v>
       </c>
     </row>
-    <row r="249" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E249" s="2">
         <f t="shared" si="24"/>
         <v>0.24600000000000019</v>
@@ -32231,7 +32220,7 @@
         <v>0.22223634915515741</v>
       </c>
     </row>
-    <row r="250" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="250" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E250" s="2">
         <f t="shared" si="24"/>
         <v>0.24700000000000019</v>
@@ -32257,7 +32246,7 @@
         <v>0.22353334072931583</v>
       </c>
     </row>
-    <row r="251" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="251" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E251" s="2">
         <f t="shared" si="24"/>
         <v>0.24800000000000019</v>
@@ -32283,7 +32272,7 @@
         <v>0.22483099242065008</v>
       </c>
     </row>
-    <row r="252" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="252" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E252" s="2">
         <f t="shared" si="24"/>
         <v>0.24900000000000019</v>
@@ -32309,7 +32298,7 @@
         <v>0.22612929336540405</v>
       </c>
     </row>
-    <row r="253" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="253" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E253" s="2">
         <f t="shared" si="24"/>
         <v>0.25000000000000017</v>
@@ -32335,7 +32324,7 @@
         <v>0.22742823287277414</v>
       </c>
     </row>
-    <row r="254" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="254" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E254" s="2">
         <f t="shared" si="24"/>
         <v>0.25100000000000017</v>
@@ -32361,7 +32350,7 @@
         <v>0.22872780042234264</v>
       </c>
     </row>
-    <row r="255" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E255" s="2">
         <f t="shared" si="24"/>
         <v>0.25200000000000017</v>
@@ -32387,7 +32376,7 @@
         <v>0.2300279856615432</v>
       </c>
     </row>
-    <row r="256" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="256" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E256" s="2">
         <f t="shared" si="24"/>
         <v>0.25300000000000017</v>
@@ -32413,7 +32402,7 @@
         <v>0.23132877840315796</v>
       </c>
     </row>
-    <row r="257" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E257" s="2">
         <f t="shared" si="24"/>
         <v>0.25400000000000017</v>
@@ -32439,7 +32428,7 @@
         <v>0.23263016862284636</v>
       </c>
     </row>
-    <row r="258" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="258" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E258" s="2">
         <f t="shared" si="24"/>
         <v>0.25500000000000017</v>
@@ -32465,7 +32454,7 @@
         <v>0.2339321464567051</v>
       </c>
     </row>
-    <row r="259" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E259" s="2">
         <f t="shared" si="24"/>
         <v>0.25600000000000017</v>
@@ -32491,7 +32480,7 @@
         <v>0.23523470219885964</v>
       </c>
     </row>
-    <row r="260" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="260" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E260" s="2">
         <f t="shared" si="24"/>
         <v>0.25700000000000017</v>
@@ -32517,7 +32506,7 @@
         <v>0.23653782629908632</v>
       </c>
     </row>
-    <row r="261" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="261" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E261" s="2">
         <f t="shared" si="24"/>
         <v>0.25800000000000017</v>
@@ -32543,7 +32532,7 @@
         <v>0.23784150936046528</v>
       </c>
     </row>
-    <row r="262" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E262" s="2">
         <f t="shared" si="24"/>
         <v>0.25900000000000017</v>
@@ -32569,7 +32558,7 @@
         <v>0.23914574213706408</v>
       </c>
     </row>
-    <row r="263" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="263" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E263" s="2">
         <f t="shared" si="24"/>
         <v>0.26000000000000018</v>
@@ -32595,7 +32584,7 @@
         <v>0.24045051553165137</v>
       </c>
     </row>
-    <row r="264" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="264" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E264" s="2">
         <f t="shared" si="24"/>
         <v>0.26100000000000018</v>
@@ -32621,7 +32610,7 @@
         <v>0.24175582059344067</v>
       </c>
     </row>
-    <row r="265" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="265" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E265" s="2">
         <f t="shared" si="24"/>
         <v>0.26200000000000018</v>
@@ -32647,7 +32636,7 @@
         <v>0.24306164851586406</v>
       </c>
     </row>
-    <row r="266" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="266" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E266" s="2">
         <f t="shared" si="24"/>
         <v>0.26300000000000018</v>
@@ -32673,7 +32662,7 @@
         <v>0.24436799063437528</v>
       </c>
     </row>
-    <row r="267" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="267" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E267" s="2">
         <f t="shared" si="24"/>
         <v>0.26400000000000018</v>
@@ -32699,7 +32688,7 @@
         <v>0.24567483842428223</v>
       </c>
     </row>
-    <row r="268" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E268" s="2">
         <f t="shared" si="24"/>
         <v>0.26500000000000018</v>
@@ -32725,7 +32714,7 @@
         <v>0.24698218349860848</v>
       </c>
     </row>
-    <row r="269" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="269" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E269" s="2">
         <f t="shared" si="24"/>
         <v>0.26600000000000018</v>
@@ -32751,7 +32740,7 @@
         <v>0.24829001760598374</v>
       </c>
     </row>
-    <row r="270" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="270" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E270" s="2">
         <f t="shared" si="24"/>
         <v>0.26700000000000018</v>
@@ -32777,7 +32766,7 @@
         <v>0.24959833262856262</v>
       </c>
     </row>
-    <row r="271" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="271" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E271" s="2">
         <f t="shared" si="24"/>
         <v>0.26800000000000018</v>
@@ -32803,7 +32792,7 @@
         <v>0.25090712057997194</v>
       </c>
     </row>
-    <row r="272" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="272" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E272" s="2">
         <f t="shared" si="24"/>
         <v>0.26900000000000018</v>
@@ -32829,7 +32818,7 @@
         <v>0.25221637360328597</v>
       </c>
     </row>
-    <row r="273" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E273" s="2">
         <f t="shared" si="24"/>
         <v>0.27000000000000018</v>
@@ -32855,7 +32844,7 @@
         <v>0.25352608396902931</v>
       </c>
     </row>
-    <row r="274" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E274" s="2">
         <f t="shared" si="24"/>
         <v>0.27100000000000019</v>
@@ -32881,7 +32870,7 @@
         <v>0.25483624407320765</v>
       </c>
     </row>
-    <row r="275" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="275" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E275" s="2">
         <f t="shared" si="24"/>
         <v>0.27200000000000019</v>
@@ -32907,7 +32896,7 @@
         <v>0.25614684643536534</v>
       </c>
     </row>
-    <row r="276" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="276" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E276" s="2">
         <f t="shared" si="24"/>
         <v>0.27300000000000019</v>
@@ -32933,7 +32922,7 @@
         <v>0.25745788369667011</v>
       </c>
     </row>
-    <row r="277" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E277" s="2">
         <f t="shared" si="24"/>
         <v>0.27400000000000019</v>
@@ -32959,7 +32948,7 @@
         <v>0.25876934861802464</v>
       </c>
     </row>
-    <row r="278" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E278" s="2">
         <f t="shared" si="24"/>
         <v>0.27500000000000019</v>
@@ -32985,7 +32974,7 @@
         <v>0.26008123407820427</v>
       </c>
     </row>
-    <row r="279" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E279" s="2">
         <f t="shared" si="24"/>
         <v>0.27600000000000019</v>
@@ -33011,7 +33000,7 @@
         <v>0.26139353307202112</v>
       </c>
     </row>
-    <row r="280" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="280" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E280" s="2">
         <f t="shared" si="24"/>
         <v>0.27700000000000019</v>
@@ -33037,7 +33026,7 @@
         <v>0.26270623870851384</v>
       </c>
     </row>
-    <row r="281" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E281" s="2">
         <f t="shared" si="24"/>
         <v>0.27800000000000019</v>
@@ -33063,7 +33052,7 @@
         <v>0.26401934420916329</v>
       </c>
     </row>
-    <row r="282" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E282" s="2">
         <f t="shared" si="24"/>
         <v>0.27900000000000019</v>
@@ -33089,7 +33078,7 @@
         <v>0.26533284290613329</v>
       </c>
     </row>
-    <row r="283" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="283" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E283" s="2">
         <f t="shared" si="24"/>
         <v>0.28000000000000019</v>
@@ -33115,7 +33104,7 @@
         <v>0.26664672824053648</v>
       </c>
     </row>
-    <row r="284" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="284" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E284" s="2">
         <f t="shared" si="24"/>
         <v>0.28100000000000019</v>
@@ -33141,7 +33130,7 @@
         <v>0.26796099376072513</v>
       </c>
     </row>
-    <row r="285" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="285" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E285" s="2">
         <f t="shared" si="24"/>
         <v>0.28200000000000019</v>
@@ -33167,7 +33156,7 @@
         <v>0.26927563312060626</v>
       </c>
     </row>
-    <row r="286" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E286" s="2">
         <f t="shared" si="24"/>
         <v>0.2830000000000002</v>
@@ -33193,7 +33182,7 @@
         <v>0.27059064007798106</v>
       </c>
     </row>
-    <row r="287" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E287" s="2">
         <f t="shared" si="24"/>
         <v>0.2840000000000002</v>
@@ -33219,7 +33208,7 @@
         <v>0.2719060084929083</v>
       </c>
     </row>
-    <row r="288" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="288" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E288" s="2">
         <f t="shared" si="24"/>
         <v>0.2850000000000002</v>
@@ -33245,9 +33234,9 @@
         <v>0.27322173232609159</v>
       </c>
     </row>
-    <row r="289" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="289" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E289" s="2">
-        <f t="shared" ref="E289:E320" si="30">E288+$A$5</f>
+        <f t="shared" ref="E289:E334" si="30">E288+$A$5</f>
         <v>0.2860000000000002</v>
       </c>
       <c r="F289" s="2">
@@ -33271,7 +33260,7 @@
         <v>0.27453780563728969</v>
       </c>
     </row>
-    <row r="290" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E290" s="2">
         <f t="shared" si="30"/>
         <v>0.2870000000000002</v>
@@ -33297,7 +33286,7 @@
         <v>0.27585422258375031</v>
       </c>
     </row>
-    <row r="291" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E291" s="2">
         <f t="shared" si="30"/>
         <v>0.2880000000000002</v>
@@ -33323,7 +33312,7 @@
         <v>0.27717097741866648</v>
       </c>
     </row>
-    <row r="292" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="292" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E292" s="2">
         <f t="shared" si="30"/>
         <v>0.2890000000000002</v>
@@ -33349,7 +33338,7 @@
         <v>0.27848806448965596</v>
       </c>
     </row>
-    <row r="293" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="293" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E293" s="2">
         <f t="shared" si="30"/>
         <v>0.2900000000000002</v>
@@ -33375,7 +33364,7 @@
         <v>0.27980547823726254</v>
       </c>
     </row>
-    <row r="294" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E294" s="2">
         <f t="shared" si="30"/>
         <v>0.2910000000000002</v>
@@ -33401,7 +33390,7 @@
         <v>0.28112321319347949</v>
       </c>
     </row>
-    <row r="295" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="295" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E295" s="2">
         <f t="shared" si="30"/>
         <v>0.2920000000000002</v>
@@ -33427,7 +33416,7 @@
         <v>0.28244126398029523</v>
       </c>
     </row>
-    <row r="296" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E296" s="2">
         <f t="shared" si="30"/>
         <v>0.2930000000000002</v>
@@ -33453,7 +33442,7 @@
         <v>0.28375962530825982</v>
       </c>
     </row>
-    <row r="297" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E297" s="2">
         <f t="shared" si="30"/>
         <v>0.29400000000000021</v>
@@ -33479,7 +33468,7 @@
         <v>0.28507829197507345</v>
       </c>
     </row>
-    <row r="298" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E298" s="2">
         <f t="shared" si="30"/>
         <v>0.29500000000000021</v>
@@ -33505,7 +33494,7 @@
         <v>0.28639725886419531</v>
       </c>
     </row>
-    <row r="299" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="299" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E299" s="2">
         <f t="shared" si="30"/>
         <v>0.29600000000000021</v>
@@ -33531,7 +33520,7 @@
         <v>0.28771652094347361</v>
       </c>
     </row>
-    <row r="300" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E300" s="2">
         <f t="shared" si="30"/>
         <v>0.29700000000000021</v>
@@ -33557,7 +33546,7 @@
         <v>0.28903607326379593</v>
       </c>
     </row>
-    <row r="301" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="301" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E301" s="2">
         <f t="shared" si="30"/>
         <v>0.29800000000000021</v>
@@ -33583,7 +33572,7 @@
         <v>0.29035591095775981</v>
       </c>
     </row>
-    <row r="302" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="302" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E302" s="2">
         <f t="shared" si="30"/>
         <v>0.29900000000000021</v>
@@ -33609,7 +33598,7 @@
         <v>0.29167602923836328</v>
       </c>
     </row>
-    <row r="303" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="303" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E303" s="2">
         <f t="shared" si="30"/>
         <v>0.30000000000000021</v>
@@ -33635,7 +33624,7 @@
         <v>0.29299642339771514</v>
       </c>
     </row>
-    <row r="304" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E304" s="2">
         <f t="shared" si="30"/>
         <v>0.30100000000000021</v>
@@ -33661,7 +33650,7 @@
         <v>0.29431708880576463</v>
       </c>
     </row>
-    <row r="305" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E305" s="2">
         <f t="shared" si="30"/>
         <v>0.30200000000000021</v>
@@ -33687,7 +33676,7 @@
         <v>0.29563802090905039</v>
       </c>
     </row>
-    <row r="306" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E306" s="2">
         <f t="shared" si="30"/>
         <v>0.30300000000000021</v>
@@ -33713,7 +33702,7 @@
         <v>0.29695921522946828</v>
       </c>
     </row>
-    <row r="307" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="307" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E307" s="2">
         <f t="shared" si="30"/>
         <v>0.30400000000000021</v>
@@ -33739,7 +33728,7 @@
         <v>0.29828066736305792</v>
       </c>
     </row>
-    <row r="308" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="308" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E308" s="2">
         <f t="shared" si="30"/>
         <v>0.30500000000000022</v>
@@ -33765,7 +33754,7 @@
         <v>0.29960237297880787</v>
       </c>
     </row>
-    <row r="309" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="309" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E309" s="2">
         <f t="shared" si="30"/>
         <v>0.30600000000000022</v>
@@ -33791,7 +33780,7 @@
         <v>0.30092432781747863</v>
       </c>
     </row>
-    <row r="310" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="310" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E310" s="2">
         <f t="shared" si="30"/>
         <v>0.30700000000000022</v>
@@ -33817,7 +33806,7 @@
         <v>0.30224652769044402</v>
       </c>
     </row>
-    <row r="311" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="311" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E311" s="2">
         <f t="shared" si="30"/>
         <v>0.30800000000000022</v>
@@ -33843,7 +33832,7 @@
         <v>0.30356896847855003</v>
       </c>
     </row>
-    <row r="312" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="312" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E312" s="2">
         <f t="shared" si="30"/>
         <v>0.30900000000000022</v>
@@ -33869,7 +33858,7 @@
         <v>0.30489164613099112</v>
       </c>
     </row>
-    <row r="313" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="313" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E313" s="2">
         <f t="shared" si="30"/>
         <v>0.31000000000000022</v>
@@ -33895,7 +33884,7 @@
         <v>0.30621455666420416</v>
       </c>
     </row>
-    <row r="314" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E314" s="2">
         <f t="shared" si="30"/>
         <v>0.31100000000000022</v>
@@ -33921,7 +33910,7 @@
         <v>0.30753769616077886</v>
       </c>
     </row>
-    <row r="315" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="315" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E315" s="2">
         <f t="shared" si="30"/>
         <v>0.31200000000000022</v>
@@ -33947,7 +33936,7 @@
         <v>0.30886106076838532</v>
       </c>
     </row>
-    <row r="316" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="316" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E316" s="2">
         <f t="shared" si="30"/>
         <v>0.31300000000000022</v>
@@ -33973,7 +33962,7 @@
         <v>0.31018464669871809</v>
       </c>
     </row>
-    <row r="317" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E317" s="2">
         <f t="shared" si="30"/>
         <v>0.31400000000000022</v>
@@ -33999,7 +33988,7 @@
         <v>0.31150845022645646</v>
       </c>
     </row>
-    <row r="318" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E318" s="2">
         <f t="shared" si="30"/>
         <v>0.31500000000000022</v>
@@ -34025,7 +34014,7 @@
         <v>0.31283246768824097</v>
       </c>
     </row>
-    <row r="319" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E319" s="2">
         <f t="shared" si="30"/>
         <v>0.31600000000000023</v>
@@ -34051,7 +34040,7 @@
         <v>0.31415669548166564</v>
       </c>
     </row>
-    <row r="320" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E320" s="2">
         <f t="shared" si="30"/>
         <v>0.31700000000000023</v>
